--- a/data.xlsx
+++ b/data.xlsx
@@ -22,10 +22,10 @@
     <t>post</t>
   </si>
   <si>
-    <t>{'', 'https://www.facebook.com/photo.php?fbid=1242164986208690&amp;set=a.103886476703219&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4483233358403513&amp;set=a.3879350765458445&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4259068207540613&amp;set=a.305198602927613&amp;type=3', 'https://www.facebook.com/groups/327392004454825/permalink/1168052627055421/', 'https://www.facebook.com/buudientinhkhanhhoa/videos/371923341269360/', 'https://www.facebook.com/giaiphaptaichinhthongminh.vn/videos/990947995016730/', 'https://www.facebook.com/photo.php?fbid=2443123402486158&amp;set=a.1959511577514012&amp;type=3', 'https://www.facebook.com/dalat.bin.7/videos/364007871887235/', 'https://www.facebook.com/nhquangassociates/photos/a.3881324361897291/4817744418255276/?type=3', 'http://tinthoisutrongngay24h.com/tin-tuc/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin.html', 'https://www.facebook.com/NghiPhan307/videos/797502694250162/', 'https://www.facebook.com/photo.php?fbid=2985725244977283&amp;set=gm.1803086589882738&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2954065251473638&amp;set=a.1403192096560969&amp;type=3', 'https://toquoc.vn/bao-hiem-that-nghiep-thuc-su-di-vao-cuoc-song-tro-thanh-cuu-canh-cho-nguoi-lao-dong-20210811121442872.htm', 'https://cafef.vn/do-anh-huong-covid-19-khach-hang-khong-di-nop-phi-duoc-hop-dong-bao-hiem-co-bi-mat-hieu-luc-20210827100912889.chn', 'https://www.facebook.com/photo.php?fbid=1459728497735195&amp;set=gm.1500133170340987&amp;type=3', 'https://www.facebook.com/photo.php?fbid=870439970252598&amp;set=a.138160423480560&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4598669366850103&amp;set=gm.1536335010048244&amp;type=3', 'https://www.facebook.com/100041614788044/posts/697543214976165', 'https://www.facebook.com/photo.php?fbid=3969827339792211&amp;set=a.214412212000428&amp;type=3', 'https://www.facebook.com/photo.php?fbid=991423328311228&amp;set=a.138860710234165&amp;type=3', 'http://danxaxu.com/2021/08/28/binh-thuan-thong-chot-kiem-dich-danh-luc-luong-chuc-nang-chi-vi-di-sua-chiec-loav/', 'https://www.facebook.com/512919109187454/photos/a.524721541340544/1188939314918760/?type=3', 'https://www.facebook.com/24hdaknong/photos/a.110560380563023/369301204688938/?type=3', 'https://www.facebook.com/photo.php?fbid=3553280471441944&amp;set=a.3068746923228637&amp;type=3', 'https://www.youtube.com/watch?v=EbTQq3XwL1o&amp;list=PL_7EPoEuAGGzKF6m_5C0LCwQbyysGa395&amp;index=3', 'https://www.facebook.com/photo.php?fbid=3138341376452951&amp;set=a.1837823426504759&amp;type=3', 'https://www.facebook.com/Nuochoachietpha/videos/591866568647051/', 'https://www.facebook.com/leegain4368/photos/a.1613561922257116/3080028438943783/?type=3', 'https://www.facebook.com/ACCESSTRADEVN/photos/a.832844213476752/4296293723798433/?type=3', 'https://www.facebook.com/photo.php?fbid=2938573853049297&amp;set=a.1386543484919016&amp;type=3', 'https://www.facebook.com/anhhhminhh/photos/a.2989661654638203/2989981011272934/?type=3', 'https://www.facebook.com/photo.php?fbid=2990843794507510&amp;set=a.1485868208338417&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1823332834540742&amp;set=a.108247319382644&amp;type=3', 'https://gialainews.com/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin/', 'https://www.facebook.com/photo.php?fbid=1634067653462945&amp;set=a.143646555838403&amp;type=3', 'https://www.facebook.com/photo.php?fbid=690096241948153&amp;set=a.102498910707892&amp;type=3', 'https://www.facebook.com/108197927992619/photos/a.108355057976906/208593347953076/?type=3', 'https://www.facebook.com/photo.php?fbid=1918837678277134&amp;set=gm.886342281974739&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2058649400961661&amp;set=gm.1533844946963917&amp;type=3', 'https://www.facebook.com/115481010729107/videos/920577845337007/', 'https://www.facebook.com/groups/648305279276764/permalink/1063409977766290/', 'https://www.facebook.com/photo.php?fbid=2330526723747529&amp;set=a.217501701716719&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1917677251726890&amp;set=a.192061194288513&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1942570472567296&amp;set=a.189280114563016&amp;type=3', 'https://www.facebook.com/Baohiemagribank.HO/photos/a.156259876288059/326557449258300/?type=3', 'https://www.facebook.com/lehoanghai.tgd.tca/videos/202594078517215/', 'https://sanbonbanh.com/sellcar/nissan-navara/Nissan-Navara-EL-A-IVI-2-5-AT-2WD-2020-380761.html', 'https://www.facebook.com/photo.php?fbid=625996331720618&amp;set=a.110660879920835&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4272631036166441&amp;set=a.4146373602125519&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4256468904435942&amp;set=a.658623140887221&amp;type=3', 'https://songthientam.com/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin/', 'https://www.facebook.com/photo.php?fbid=2698362103633080&amp;set=a.260368324099149&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1199426107225164&amp;set=a.1095831864251256&amp;type=3', 'https://www.facebook.com/hoangphuong747/videos/3062409844033312/', 'https://sanbonbanh.com/sellcar/ford-ranger/Ford-Ranger-Limited-2-0L-4x4-AT-2021-380709.html', 'https://www.facebook.com/photo.php?fbid=2622542774708442&amp;set=a.1386456768317055&amp;type=3', 'https://www.facebook.com/photo.php?fbid=135308345463600&amp;set=a.101160892211679&amp;type=3', 'https://www.facebook.com/Baohiemagribank.HO/photos/a.148220787091968/327990509114994/?type=3', 'https://www.baogiaothong.vn/giai-huy-cau-thu-v-league-di-nhat-tom-ship-do-ban-bao-hiem-d522375.html', 'http://saiggonlife.com/tin-tuc/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin.html', 'https://www.facebook.com/BaoHiemXaHoiTuyenQuang/photos/a.731556387202965/1470125323346064/?type=3', 'https://www.facebook.com/phapluatkinhdoanhbaohiem/photos/a.381310240222487/381969810156530/?type=3', 'https://www.facebook.com/VinMartSonLa/photos/a.585107418784820/870022760293283/?type=3', 'https://www.facebook.com/groups/Genshinimpact.vi/permalink/1066831007384689/', 'https://www.facebook.com/616966861657054', 'https://www.facebook.com/photo.php?fbid=1828575213989752&amp;set=a.101865363327421&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1947112802118882&amp;set=a.132774883552692&amp;type=3', 'https://www.facebook.com/Thubabylove98/photos/a.910870543112167/913654539500434/?type=3', 'https://docs.google.com/forms/d/e/1FAIpQLScSThg5QXPgyLfwWWJPhP8RQJKuFP_p1z51OXSHWyNqj1PfWA/viewform?zarsrc=1303', 'https://www.facebook.com/photo.php?fbid=1893262020841055&amp;set=a.1732233193610606&amp;type=3', 'https://youtube.com/watch?v=lzfVTaEFm14&amp;feature=share', 'https://vietstock.vn/2021/08/abic-du-kien-tra-co-tuc-bang-co-phieu-ty-le-14-738-889431.htm', 'https://www.facebook.com/photo.php?fbid=1906737486173997&amp;set=a.114364975411266&amp;type=3', 'https://youtu.be/lzfVTaEFm14', 'https://www.facebook.com/doanhoitaichinh/photos/a.540181986069948/4408411969246911/?type=3', 'https://m.cafef.vn/bhxh-viet-nam-huong-dan-cap-lai-doi-the-bhyt-khong-thay-doi-thong-tin-20210828141001101.chn', 'https://www.facebook.com/photo.php?fbid=2052681141538066&amp;set=a.2052079088264938&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1865814193599011&amp;set=a.365439963636449&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1514540515561686&amp;set=a.108279412854477&amp;type=3', 'https://www.facebook.com/photo.php?fbid=936870576876037&amp;set=a.121993385030431&amp;type=3', 'https://www.facebook.com/OtoXuyenMoc/videos/188190300047009/', 'https://www.facebook.com/LcdKhoaBaoHiem/videos/2948178068727513/', 'https://www.facebook.com/photo.php?fbid=4546307005478046&amp;set=a.3089122057863222&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1206680503167444&amp;set=a.1171857216649773&amp;type=3', 'https://m.vietnamnet.vn/vn/kinh-doanh/dau-tu/nhieu-doanh-nghiep-dut-nguon-tien-kho-khan-chong-chat-767677.html', 'https://cafef.vn/nguoi-lao-dong-se-mat-ngay-nhung-quyen-loi-nay-neu-khong-lay-so-bhxh-khi-nghi-viec-20210825065259527.chn', 'https://www.facebook.com/photo.php?fbid=1459728221068556&amp;set=gm.4257046607709476&amp;type=3', 'https://www.facebook.com/Bsvien108/photos/a.986905904750757/4217942698313712/?type=3', 'https://sanbonbanh.com/sellcar/mitsubishi-triton/Mitsubishi-Triton-4x2-AT-Mivec-2020-380661.html', 'https://www.facebook.com/photo.php?fbid=2672182466423025&amp;set=a.1391196171188334&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3005622493088492&amp;set=a.2940541542929921&amp;type=3', 'https://vietnamnet.vn/vn/kinh-doanh/tu-van-tai-chinh/luong-huu-tro-cap-thang-9-va-10-duoc-chi-tra-mot-lan-769273.html?utm_source=Facebook&amp;utm_medium=SocialFP&amp;utm_campaign=bm', 'https://www.facebook.com/100004136988997/videos/172919154948766', 'https://www.facebook.com/photo.php?fbid=2194153697394442&amp;set=a.107488272727672&amp;type=3', 'https://live63today.com/csgt-lam-thue/', 'https://www.facebook.com/photo.php?fbid=4589058144467389&amp;set=a.485644808142097&amp;type=3', 'https://bit.ly/3zncqrj', 'https://www.facebook.com/photo.php?fbid=2881499645434120&amp;set=a.1389952647922168&amp;type=3', 'https://www.facebook.com/photo.php?fbid=845769772996868&amp;set=a.137396053834247&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2413812068752462&amp;set=a.103200176480341&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1937666776389468&amp;set=a.121153161374181&amp;type=3', 'https://www.facebook.com/photo.php?fbid=921523592040892&amp;set=gm.2131323660370046&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1138444413351064&amp;set=gm.887863215414384&amp;type=3', 'https://saigonchill.com/bhxh-viet-nam-huong-dan-cap-lai-doi-the-bhyt-khong-thay-doi-thong-tin.html', 'https://shorten.asia/EkgS8vmH', 'https://www.facebook.com/2131054930238284/photos/a.2656996727644099/4565284466815306/?type=3', 'https://www.facebook.com/phapluatkinhdoanhbaohiem/photos/a.381310240222487/381490010204510/?type=3', 'https://www.facebook.com/PrudentialMongcaiQuangNinh/photos/a.109797090505036/385858462898896/?type=3', 'https://www.facebook.com/nhakhoahome/photos/a.134896683830726/841800116473709/?type=3', 'https://www.facebook.com/photo.php?fbid=1121584084917710&amp;set=a.103270210082441&amp;type=3', 'tel:+842523833703', 'https://www.facebook.com/congtybaohiempvihue/photos/a.297005747090529/3000923136698763/?type=3', 'https://www.facebook.com/photo.php?fbid=864933050796098&amp;set=a.619393335350072&amp;type=3', 'https://www.facebook.com/100007608107561/videos/899853447405490', 'https://www.facebook.com/BARTV.VN/videos/429687088720999/', 'https://www.facebook.com/photo.php?fbid=4490556547633008&amp;set=a.692592874096080&amp;type=3', 'https://www.facebook.com/vbathanhhoa/photos/a.789126141108198/4590513040969470/?type=3', 'https://www.facebook.com/khoabaohiem.ulsa/photos/a.1833501176670395/4872777379409411/?type=3', 'https://www.facebook.com/photo.php?fbid=2043960542419675&amp;set=a.286908721458208&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2870116106582529&amp;set=gm.2169673276699606&amp;type=3', 'https://www.facebook.com/Dongphungaymoi/photos/a.257528615027861/944370009677048/?type=3', 'https://www.facebook.com/photo.php?fbid=1014474439338015&amp;set=a.499888844129913&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1354538418274541&amp;set=a.114429952285400&amp;type=3', 'https://vieclamdanang.edu.vn/thuyet-trinh-vien-24170.html', 'https://www.facebook.com/mbageaslife.official/photos/a.1437296173001912/4454797757918390/?type=3', 'https://www.facebook.com/photo.php?fbid=376046894178994&amp;set=a.107500974366922&amp;type=3', 'https://www.facebook.com/groups/162433927866624/permalink/1014475115995830/', 'https://www.facebook.com/photo.php?fbid=2044767479010922&amp;set=a.107250882762601&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1459726264402085&amp;set=a.1275905699450810&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1014219039374651&amp;set=gm.377697233873935&amp;type=3', 'https://newstk.net/vi/news/Tin-tuc/khi-nao-nen-mua-bao-hiem-nhan-tho-1039.html', 'https://www.facebook.com/photo.php?fbid=1006842340069339&amp;set=a.123886958364886&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1450688125303474&amp;set=a.1409971882708432&amp;type=3', 'https://rd.zapps.vn/detail/161681169169847661?zl3rd=815789662550058820&amp;id=9bd1bdb2ecf705a95ce6', 'https://youtu.be/Jk07Ts6lCqU', 'https://www.facebook.com/vcpluskyanh/photos/a.3199210346764583/4648288241856779/?type=3', 'https://www.facebook.com/photo.php?fbid=1507033716304312&amp;set=a.135892686751762&amp;type=3', 'https://portal.fwd.com.vn/ifwd/cancer?utm_campaign=ACC_Cancer&amp;promo=WMACC01&amp;utm_content=fEGrAoH0360r6b27KhmJC6GfW3qGOMlz6KoBhJ5Iefq88t3Y&amp;utm_source=accesstrade&amp;utm_medium=Ads&amp;aff_sid=fEGrAoH0360r6b27KhmJC6GfW3qGOMlz6KoBhJ5Iefq88t3Y&amp;atnct1=82489c9737cc245530c7a6ebef3753ec&amp;atnct2=fEGrAoH0360r6b27KhmJC6GfW3qGOMlz6KoBhJ5Iefq88t3Y&amp;atnct3=b5hKO0007gk00kau7', 'http://daklak.tintuc.vn/tin-tuc/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin.html', 'https://laodong.vn/ban-doc/tham-gia-bao-hiem-xa-hoi-18-nam-thoi-diem-nghi-huu-ra-sao-944687.ldo', 'https://www.facebook.com/MBTQ520/photos/a.643139209170069/1983297178487592/?type=3', 'https://www.facebook.com/photo.php?fbid=3062259437338496&amp;set=a.1375530076011449&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2855125071372318&amp;set=a.2781499295401563&amp;type=3', 'https://www.facebook.com/thuysanvietnam.com.vn/photos/a.408472172601064/4200464840068426/?type=3', 'https://www.facebook.com/photo.php?fbid=3096482707299168&amp;set=a.1386229978324458&amp;type=3', 'https://www.facebook.com/danhgiaxe.vn/photos/a.118183531675359/1882848848542143/?type=3', 'https://www.facebook.com/photo.php?fbid=1564409637223860&amp;set=a.1563658993965591&amp;type=3', 'https://www.facebook.com/photo.php?fbid=6344487765569324&amp;set=a.523626050988887&amp;type=3', 'https://www.facebook.com/tuvandichvubaohiemVietNam/videos/352844853236596/', 'https://www.facebook.com/kiengiang.vnpt.vn/photos/a.1529626073923471/3021512798068117/?type=3', 'https://www.facebook.com/photo.php?fbid=2946331435615220&amp;set=a.1387009104880802&amp;type=3', 'https://vneconomy.vn/lao-dong-cua-hon-23-300-don-vi-duoc-xac-nhan-ho-tro-tu-goi-26-000-ty-dong.htm', 'https://www.facebook.com/photo.php?fbid=1290280428057227&amp;set=a.176320879453193&amp;type=3', 'https://www.facebook.com/100055288871493/videos/1014086459391760', 'https://www.facebook.com/photo.php?fbid=2979138082402646&amp;set=a.1443400189309784&amp;type=3', 'https://www.facebook.com/nguyenthichauhau0965353716/videos/206348188186934/', 'https://asianlink.org.vn/?aff=HN13333266&amp;p=tuyendung', 'https://laodong.vn/phap-luat/doi-tuong-tung-vo-y-lam-chet-nguoi-chui-boi-can-bo-chot-kiem-soat-o-hn-946111.ldo?utm_source=VMarketing&amp;utm_medium=Facebook&amp;utm_campaign=NVThan', 'https://www.facebook.com/photo.php?fbid=1973032266196500&amp;set=a.214774565355621&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1180083129157160&amp;set=a.136342286864588&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4615376798494391&amp;set=a.577158948982883&amp;type=3', 'http://tindiaphuong.net/tin-tuc/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin.html', 'https://www.facebook.com/groups/538569850380386/permalink/851671109070257/', 'https://www.facebook.com/photo.php?fbid=2603212766491909&amp;set=a.101884033291474&amp;type=3', 'https://m.plo.vn/ban-doc/vien-chuc-co-duoc-giam-dong-bao-hiem-trong-mua-dich-1010535.html', 'https://www.facebook.com/photo.php?fbid=3025275077688901&amp;set=a.1390590984490660&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4258788270901940&amp;set=a.305198602927613&amp;type=3', 'https://vietbao.vn/huong-dan-gui-ho-so-qua-buu-dien-o-tp-hcm-259033.html', 'https://www.facebook.com/dao.lethi.35380/videos/200943928686824/', 'https://www.facebook.com/photo.php?fbid=2857862897860516&amp;set=a.1436012753378878&amp;type=3', 'https://www.facebook.com/photo.php?fbid=882400969377435&amp;set=a.130273187923554&amp;type=3', 'https://www.facebook.com/tuvanduhocnhatdanang/photos/a.1466771660263944/2959075971033498/?type=3', 'https://youtube.com/watch?v=yyPHd-mjjnU&amp;feature=share', 'https://www.facebook.com/dung.bui.969/videos/1174519436287105/', 'https://www.facebook.com/photo.php?fbid=2752824005007790&amp;set=a.1392898561000348&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2988441631395657&amp;set=a.1618182915088209&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1699288533794481&amp;set=a.100906256966058&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2187097694764592&amp;set=a.388913267916386&amp;type=3', 'https://thuongtruong.com.vn/news/abic-du-kien-phat-hanh-5-16-trieu-co-phieu-tra-co-tuc-ty-le-14-63591.html', 'https://www.facebook.com/photo.php?fbid=2664124107222554&amp;set=a.1383688315266146&amp;type=3', 'https://www.ntdvn.com/viet-nam/huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin-239808.html', 'https://www.facebook.com/phinhanthocathay/photos/a.123773653140801/189429366575229/?type=3', 'https://www.facebook.com/photo.php?fbid=1485293568536618&amp;set=a.209244852808169&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2029633057191196&amp;set=a.1272955382858971&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4232157090206168&amp;set=a.274214349333815&amp;type=3', 'https://www.facebook.com/buudienxatulap/videos/2879334825665088/', 'https://www.facebook.com/photo.php?fbid=1138148840047288&amp;set=gm.2717283628572622&amp;type=3', 'http://tinhangngay365.com/tin-tuc/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin.html', 'https://www.facebook.com/photo.php?fbid=1568631193470952&amp;set=a.143056236028462&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1318859868529760&amp;set=a.247873542295070&amp;type=3', 'https://sanbonbanh.com/sellcar/mazda-3/Mazda-3-1-5-AT-2016-380872.html', 'https://www.facebook.com/DiendanBHXHvaDoanhnghiep/photos/a.618746764812397/4462785383741830/?type=3', 'https://laodong.vn/cong-doan/nhan-luong-huu-tro-cap-bao-hiem-xa-hoi-thang-9-va-10-vao-cung-1-ky-chi-tra-946008.ldo', 'https://www.facebook.com/photo.php?fbid=1918846111609624&amp;set=gm.4095783450519518&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3636887069747936&amp;set=a.526265967476744&amp;type=3', 'https://www.facebook.com/tinnhanhphoyenThainguyen24H/photos/a.117153516868274/333779991872291/?type=3', 'https://www.facebook.com/baohiemdaiichicantho/videos/1115475922186308/', 'https://www.facebook.com/groups/2307390402608162/permalink/6557358050944688/', 'https://www.facebook.com/photo.php?fbid=1433703853667331&amp;set=a.183249228712806&amp;type=3', 'https://www.facebook.com/100050484939886/videos/428235428576424', 'https://go.isclix.com/deep_link/5707561802558692882/5273450678010925049?url=https%3A%2F%2Fbaohiemtructuyen.com.vn%2Fhome', 'https://www.facebook.com/TIDOLIFE4.0/photos/a.1037751252977143/4386865154732386/?type=3', 'https://nld.com.vn/phap-luat/nguoi-dan-ong-co-3-tien-an-dap-bop-co-cong-an-truc-chot-kiem-soat-dich-covid-19-20210825195422679.htm', 'https://www.facebook.com/photo.php?fbid=1917625565062239&amp;set=a.1651410615017070&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2059898114167948&amp;set=a.158289750995470&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1479225889077802&amp;set=a.1289084131425313&amp;type=3', 'https://www.facebook.com/groups/2239762169422494/permalink/4353863328012357/', 'https://www.facebook.com/photo.php?fbid=2370549879744201&amp;set=gm.808067829871887&amp;type=3', 'https://www.facebook.com/viettelstorerachsoi/photos/a.311476629272080/1277785385974528/?type=3', 'https://www.facebook.com/photo.php?fbid=164197269158301&amp;set=gm.1090521121683686&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2048498251967572&amp;set=a.195982127219203&amp;type=3', 'https://vics-corp.com/hoa-giai---phuong-an-toi-uu-trong-giai-quyet-tranh-chap-ve-bao-hiem-2', 'https://www.facebook.com/trantiep0973954234/videos/3061402310796654/', 'https://www.facebook.com/photo.php?fbid=4591003560939514&amp;set=a.485644808142097&amp;type=3', 'https://www.facebook.com/vaytienbangdangkyxemayotof88/photos/a.118679510031978/309573224275938/?type=3', 'https://cafebiz.vn/nguoi-lao-dong-se-mat-ngay-nhung-quyen-loi-nay-neu-khong-lay-so-bhxh-khi-nghi-viec-20210826105409392.chn', 'https://www.facebook.com/photo.php?fbid=826033351414885&amp;set=a.108009083217319&amp;type=3', 'https://www.facebook.com/tranve1994/photos/a.1614230795480767/2989961481241018/?type=3', 'https://www.facebook.com/photo.php?fbid=4613488808663348&amp;set=a.3746556592023245&amp;type=3', 'https://www.facebook.com/daika.heo.37/videos/561638448585808/', 'https://www.facebook.com/ManulifeLongBien/photos/a.105692558379998/137716618510925/?type=3', 'https://www.facebook.com/hanwhalifevn/photos/a.552213088122161/4831287293548031/?type=3', 'https://www.facebook.com/bhsktreem/videos/268495148437435/', 'https://www.facebook.com/kool.nhok.182/videos/303044718257601/', 'https://tamkhoatech.vn/mbiz360-giai-phap-tiet-kiem-cuoc-vien-thong-trong-dich-covid-19/', 'https://www.facebook.com/VIETVnetwork/videos/988983898353651/', 'https://www.facebook.com/photo.php?fbid=4291488120964577&amp;set=a.223805244399572&amp;type=3', 'https://www.facebook.com/events/365051822007917/', 'https://www.facebook.com/100003847595091/posts/2012973658840868', 'https://www.facebook.com/groups/1015109272231447/permalink/1128345550907818/', 'https://www.facebook.com/photo.php?fbid=1989086484593946&amp;set=a.925142077655064&amp;type=3', 'https://laodong.vn/ban-doc/3-cach-tra-cuu-gia-tri-su-dung-the-bao-hiem-y-te-online-947087.ldo?utm_source=vmarketing&amp;utm_medium=Facebook&amp;utm_campaign=Mai', 'https://www.facebook.com/photo.php?fbid=1233249470471264&amp;set=a.125960991200123&amp;type=3', 'http://vaa.com.vn/hop-dong-thu-viec-co-phai-dong-bao-hiem-bat-buoc-khong/', 'https://www.facebook.com/photo.php?fbid=1859649520883288&amp;set=a.101644123350512&amp;type=3', 'https://shorten.asia/RVkw91an', 'https://www.facebook.com/vnpt.thanhhoa.7/photos/a.459941537411536/5956831167722518/?type=3', 'https://www.facebook.com/photo.php?fbid=2626285324345207&amp;set=a.1382441992062886&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2152676468213333&amp;set=a.106671996147134&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2638769659602235&amp;set=a.163057430506816&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2041075572737350&amp;set=a.101238100054450&amp;type=3', 'http://doisongtrongnuoc24h.com/tin-tuc/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin.html', 'https://www.facebook.com/photo.php?fbid=1139728659889306&amp;set=gm.5020038081345411&amp;type=3', 'https://www.facebook.com/groups.luatgiaothong/videos/2317350765033523/', 'https://www.facebook.com/photo.php?fbid=1807536782753282&amp;set=a.116703625169948&amp;type=3', 'https://www.facebook.com/DansinhKhanhHoa/photos/a.101765724512791/577361050286587/?type=3', 'https://www.facebook.com/photo.php?fbid=3059235494400773&amp;set=a.1415924838731855&amp;type=3', 'https://www.facebook.com/buudiendaklak/videos/316576230263705/', 'https://www.facebook.com/photo.php?fbid=1053394605200302&amp;set=a.102011640338608&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2966604090268817&amp;set=a.1387403751522200&amp;type=3', 'https://www.facebook.com/105735334593853/videos/208277151284613/', 'https://www.facebook.com/truc.gau.7106/videos/431787781496213/', 'https://www.facebook.com/photo.php?fbid=2600134750132599&amp;set=a.440769636069132&amp;type=3', 'https://www.facebook.com/vieclamCPM/photos/a.617137395102428/2021648251317995/?type=3', 'https://www.facebook.com/photo.php?fbid=2159983134144108&amp;set=a.152933031515805&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3993190284120632&amp;set=a.187209534718745&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3113082725587174&amp;set=a.1631662053729256&amp;type=3', 'https://www.facebook.com/nhungnganhang888/videos/253712009932309/', 'https://www.facebook.com/tintucMongcai/photos/a.1712871422318010/2982341065371033/?type=3', 'https://www.facebook.com/photo.php?fbid=2047152308767988&amp;set=a.357899817693254&amp;type=3', 'https://www.facebook.com/photo.php?fbid=578500913335508&amp;set=a.158126738706263&amp;type=3', 'https://www.facebook.com/tuvandichvubaohiemVietNam/photos/gm.908850339704450/1095214851008531/?type=3', 'https://www.facebook.com/photo.php?fbid=2580753038737084&amp;set=a.2563338897145165&amp;type=3', 'https://www.facebook.com/nguyenducthang1975/videos/241880767846916/', 'https://www.facebook.com/101693012248291/photos/a.101694855581440/101818265569099/?type=3', 'https://www.facebook.com/BaloUek/photos/a.2053681184904370/3014382765500869/?type=3', 'https://www.facebook.com/photo.php?fbid=1916530401854181&amp;set=a.1739933489513874&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2417983538346223&amp;set=a.2309397512538160&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2176134025862291&amp;set=a.103974489744932&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1431555490552817&amp;set=a.137264496648596&amp;type=3', 'https://youtu.be/wWgiKuT36HI', 'https://www.facebook.com/photo.php?fbid=635866340713334&amp;set=a.635866304046671&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1958682254305397&amp;set=a.265994380240868&amp;type=3', 'https://tintuconline.com.vn/xa-hoi/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin-n-491266.html?utm_source=Facebook+&amp;utm_medium=SocialFP&amp;utm_campaign=ttol', 'https://hocvienbaohiem.vip/huong-dan-ky-nang-tu-van-bao-hiem-truc-tuyen-thong-qua-danh-thiep-dien-tu-ban-hang', 'https://youtube.com/watch?v=w0JIRhYM95Q', 'https://www.manulife.com.vn/vi/bao-hiem-online/shopee.html', 'https://www.facebook.com/vaytientt/photos/a.2280668748858829/2961786097413754/?type=3', 'https://www.facebook.com/phuong.bong.562/videos/1192662781242754/', 'https://www.facebook.com/photo.php?fbid=3089320077968053&amp;set=a.1554405898126153&amp;type=3', 'http://ninhbinh.tintuc.vn/tin-tuc/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin.html', 'https://www.facebook.com/photo.php?fbid=1277158819398625&amp;set=a.1264784843969356&amp;type=3', 'https://www.facebook.com/leanhtuyet.le/videos/536670920954595/', 'https://www.facebook.com/photo.php?fbid=2236750956461193&amp;set=a.329233137212994&amp;type=3', 'https://www.facebook.com/groups/dailybaohiemnhantho/permalink/2898057953778010/', 'https://www.baogiaothong.vn/ban-bao-hiem-xe-o-to-ngay-tai-quay-lam-thu-tuc-dang-kiem-co-pham-luat-d521720.html', 'https://www.facebook.com/photo.php?fbid=3962276277210122&amp;set=a.265372916900495&amp;type=3', 'https://www.facebook.com/photo.php?fbid=826767724697562&amp;set=a.104748610232814&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1739343962916021&amp;set=a.1401973029986451&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4230089623778901&amp;set=a.231661343621769&amp;type=3', 'https://www.facebook.com/bhsktreem/photos/a.588742738161580/1531149030587608/?type=3', 'https://www.facebook.com/photo.php?fbid=1984557055034251&amp;set=a.493412990815339&amp;type=3', 'https://www.facebook.com/groups/865629204136789/permalink/873154970050879/', 'https://www.facebook.com/jiang.ruan.9/videos/870542183896928/', 'https://www.facebook.com/pvionline/photos/a.504069226333247/5967944313279017/?type=3', 'https://www.facebook.com/vanchuyenchaua/photos/a.100691918886397/144235301198725/?type=3', 'https://www.facebook.com/photo.php?fbid=1012750935967246&amp;set=gm.4457915320941538&amp;type=3', 'https://www.facebook.com/khoabaohiem.ulsa/photos/a.1833501176670395/4872769859410163/?type=3', 'https://www.facebook.com/photo.php?fbid=804956640169098&amp;set=a.107692236562212&amp;type=3', 'https://youtu.be/p82RaMm-NAc', 'https://www.facebook.com/photo.php?fbid=1841084636086777&amp;set=a.1754014188127156&amp;type=3', 'https://www.facebook.com/benhviendakhoaphuongdong/videos/561483348385452/', 'https://thebank.vn/blog/17967-vo-tinh-nhung-chua-bao-gio-toi-hoi-han-khi-tham-gia-bao-hiem-nhan-tho.html', 'https://www.facebook.com/photo.php?fbid=1701593276717444&amp;set=a.435604773316307&amp;type=3', 'https://maps.app.goo.gl/8HZ9dKRkbrFUfX3cA', 'https://www.facebook.com/photo.php?fbid=2999625590307490&amp;set=a.1397314740538591&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2974400369547156&amp;set=a.1413891072264768&amp;type=3', 'https://www.facebook.com/photo.php?fbid=863186514304085&amp;set=a.619393335350072&amp;type=3', 'http://www.jokerhelmets.com/', 'https://www.facebook.com/photo.php?fbid=864891257737121&amp;set=a.124975215062066&amp;type=3', 'https://www.facebook.com/photo.php?fbid=985806295607021&amp;set=a.108025800051746&amp;type=3', 'https://www.facebook.com/events/2891346131117140/', 'https://www.facebook.com/photo.php?fbid=1213427085791758&amp;set=a.103880110079800&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2009063992580602&amp;set=a.100381213448899&amp;type=3', 'https://baolaocai.vn/bai-viet/346524-tham-tang-qua-cac-chot-kiem-dich-cao-toc-noi-bai--lao-cai', 'https://www.facebook.com/photo.php?fbid=3053331011655620&amp;set=a.2841251576196899&amp;type=3', 'https://www.facebook.com/xinchaocall/photos/a.108997974079533/384477056531622/?type=3', 'https://www.facebook.com/phuongdongbank/photos/a.117172575898/10157930580760899/?type=3', 'https://www.facebook.com/XuongdichvuotoBaoTin/photos/a.192645587935898/1077293502804431/?type=3', 'https://www.facebook.com/photo.php?fbid=10216244027492158&amp;set=a.4412752575752&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1013030389515138&amp;set=a.113707776114075&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2125041787661762&amp;set=a.1250964821736134&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4467866943251988&amp;set=a.590158261022895&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4406141939453374&amp;set=a.433930706674537&amp;type=3', 'https://www.facebook.com/letoan.letoan.790/videos/366861098363529/', 'https://www.facebook.com/photo.php?fbid=2610702842559125&amp;set=a.1469679333328154&amp;type=3', 'https://baothainguyen.vn/tin-tuc/xa-hoi/tiep-tuc-chi-tra-gop-luong-huu-va-tro-cap-bao-hiem-xa-hoi-thang-9-10-trong-mot-ky-290186-85.html', 'https://www.facebook.com/photo.php?fbid=2861379320842576&amp;set=gm.883878635859858&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1115487405646668&amp;set=a.1044369249425151&amp;type=3', 'https://m.cafef.vn/khi-chuyen-tu-dong-bhxh-bat-buoc-sang-tu-nguyen-nguoi-lao-dong-can-chu-y-dieu-nay-20210826140311071.chn', 'https://www.facebook.com/photo.php?fbid=4708491362494964&amp;set=a.802461646431308&amp;type=3', 'https://www.facebook.com/ilovevcb/photos/a.174860506001404/2082896898531079/?type=3', 'https://www.facebook.com/photo.php?fbid=2592565130888897&amp;set=a.2536373959841348&amp;type=3', 'https://youtu.be/KEqhiqOghj0', 'https://www.facebook.com/photo.php?fbid=2448411658635612&amp;set=a.110552589088209&amp;type=3', 'https://www.facebook.com/100014206383569/videos/804101936949290', 'https://www.facebook.com/100006005162066/videos/584875805864134', 'https://www.facebook.com/photo.php?fbid=1845046885668157&amp;set=a.159210827585113&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4788061287872223&amp;set=a.724418097569916&amp;type=3', 'https://www.facebook.com/photo.php?fbid=999867110767456&amp;set=a.125942031493306&amp;type=3', 'https://www.facebook.com/photo.php?fbid=5144065322287363&amp;set=a.529864823707459&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2023973587751810&amp;set=a.319700031512516&amp;type=3', 'https://www.facebook.com/vieclamdalat/photos/a.291583081030102/1704215516433511/?type=3', 'https://www.facebook.com/176195100647516/photos/a.176197613980598/340588947541463/?type=3', 'https://vieclamdanang.edu.vn/truong-phong-kinh-doanh-24171.html', 'https://www.facebook.com/photo.php?fbid=1498645813810201&amp;set=a.148877482120381&amp;type=3', 'https://www.facebook.com/THUCAPPLEQUANGNAM/photos/a.2244591049102254/3090722047822479/?type=3', 'https://www.facebook.com/photo.php?fbid=2859475770936416&amp;set=a.1380297605520914&amp;type=3', 'https://www.facebook.com/101017605646438/posts/101727862242079/', 'https://www.facebook.com/photo.php?fbid=1723395041184812&amp;set=gm.587094102645236&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4366952360028874&amp;set=a.283802071677277&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1667132860342924&amp;set=a.1319095015146712&amp;type=3', 'https://nhipsongdoanhnghiep.cuocsongantoan.vn/viec-lam/tranh-thu-nguon-luc-hon-900000-ty-dong-ket-du-quy-bao-hiem-xa-hoi-va-bao-hiem-that-nghiep-3569239.html', 'https://rinring.net/sieu-anh-hung-co-bap-chevrolet-camaro-do-cua-cat-keo-bi-nuoc-lu-bao-vay-khien-nhieu-nguoi-xot-xa/', 'https://www.facebook.com/photo.php?fbid=1288403048242030&amp;set=a.124995711249442&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1373024899796164&amp;set=a.218876088544390&amp;type=3', 'https://www.facebook.com/buudienhue.vn/photos/a.906950902982858/1533157200362222/?type=3', 'https://www.youtube.com/watch?v=njXAQtG9Cic&amp;feature=share', 'https://m.cafef.vn/bao-hiem-fwd-ghi-nhan-danh-hieu-thanh-tuu-tron-doi-cho-tu-van-tai-chinh-20210803152107498.chn?zarsrc=31&amp;utm_source=zalo&amp;utm_medium=zalo&amp;utm_campaign=zalo', 'https://www.facebook.com/photo.php?fbid=532139328016825&amp;set=a.137556980808397&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3177714855848362&amp;set=a.1397498237203375&amp;type=3', 'https://www.facebook.com/tranvietmb/videos/895051764553600/', 'https://www.facebook.com/photo.php?fbid=3634840290074507&amp;set=a.1391147364443822&amp;type=3', 'https://www.facebook.com/photo.php?fbid=10215958167585885&amp;set=a.10201551354664566&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4397738066916361&amp;set=a.4281604841863018&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1771579292994131&amp;set=a.101838916634852&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3122117038108456&amp;set=a.1459510417702468&amp;type=3', 'https://hrinsider.vietnamworks.com/pho-bien-chin</t>
+    <t>['', 'https://www.facebook.com/photo.php?fbid=2111754172305015&amp;set=a.102639873216465&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2059898114167948&amp;set=a.158289750995470&amp;type=3', 'https://www.facebook.com/481664115498526/photos/a.481937752137829/1617535175244742/?type=3', 'https://www.facebook.com/photo.php?fbid=3059235494400773&amp;set=a.1415924838731855&amp;type=3', 'https://www.facebook.com/100050484939886/videos/428235428576424', 'https://www.facebook.com/photo.php?fbid=3025275077688901&amp;set=a.1390590984490660&amp;type=3', 'https://www.facebook.com/duhocvietnhat/photos/a.119734934838245/2452851098193272/?type=3', 'https://www.facebook.com/photo.php?fbid=1942570472567296&amp;set=a.189280114563016&amp;type=3', 'https://youtube.com/watch?v=lzfVTaEFm14&amp;feature=share', 'https://www.facebook.com/otothongphat.vn/photos/a.107850227630546/380623993686500/?type=3', 'https://www.facebook.com/photo.php?fbid=4232462290155845&amp;set=a.351082941627152&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2009063992580602&amp;set=a.100381213448899&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1499703550381437&amp;set=gm.1174288906425659&amp;type=3', 'https://www.facebook.com/buudientinhkhanhhoa/photos/a.1460077417358040/4562481887117562/?type=3', 'https://www.facebook.com/105295125131103/photos/a.105295155131100/105298895130726/?type=3', 'https://www.facebook.com/photo.php?fbid=635866340713334&amp;set=a.635866304046671&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1973032266196500&amp;set=a.214774565355621&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3075736826082798&amp;set=a.2309031876086634&amp;type=3', 'https://vnexpress.net/aia-nhan-3-giai-thuong-toan-cau-trong-mua-dich-4345932.html', 'https://vietstock.vn/2021/08/abic-du-kien-tra-co-tuc-bang-co-phieu-ty-le-14-738-889431.htm', 'https://www.facebook.com/phanlethanh.toan.3/videos/183580023869410/', 'https://www.facebook.com/BaohiemFWDVietnam/videos/374523680743642/', 'https://www.facebook.com/danlevn/videos/1198862510624827/', 'https://www.facebook.com/photo.php?fbid=2705532369592426&amp;set=a.148177235327965&amp;type=3', 'https://www.facebook.com/BaoHiemPhiNhanTho.VBI.VietinbankInsurance/photos/a.121232686287903/388443782900124/?type=3', 'https://thuongtruong.com.vn/news/abic-du-kien-phat-hanh-5-16-trieu-co-phieu-tra-co-tuc-ty-le-14-63591.html', 'https://www.youtube.com/watch?v=JSuQfU3oUYw', 'https://www.facebook.com/photo.php?fbid=864891257737121&amp;set=a.124975215062066&amp;type=3', 'http://tin.comtruockeng.com/?p=3354', 'https://www.facebook.com/115481010729107/videos/920577845337007/', 'https://www.facebook.com/106769707593868/photos/a.106802070923965/355405122730324/?type=3', 'https://www.facebook.com/tuvandichvubaohiemVietNam/photos/a.561939584336063/1095747254288624/?type=3', 'https://www.facebook.com/photo.php?fbid=4252654894851595&amp;set=a.244216295695495&amp;type=3', 'http://baohagiang.vn/xa-hoi/202108/pjico-ha-giang-chi-tra-boi-thuong-63-trieu-dong-cho-khach-hang-781144/?utm_source=zalo&amp;utm_medium=zalo&amp;utm_campaign=zalo&amp;zarsrc=31', 'https://www.facebook.com/photo.php?fbid=2194961757312734&amp;set=a.2110070805801830&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4467866943251988&amp;set=a.590158261022895&amp;type=3', 'https://www.facebook.com/100010034119327/posts/1546415162369606', 'https://m.tapchitaichinh.vn/bao-hiem/prudential-viet-nam-duoc-vinh-danh-la-cong-ty-bao-hiem-nhan-tho-quoc-te-cua-nam-337602.html?utm_source=zalo&amp;utm_medium=zalo&amp;utm_campaign=zalo&amp;zarsrc=10', 'https://www.facebook.com/photo.php?fbid=863186514304085&amp;set=a.619393335350072&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2626285324345207&amp;set=a.1382441992062886&amp;type=3', 'https://www.facebook.com/groups/538569850380386/permalink/851671109070257/', 'https://www.facebook.com/photo.php?fbid=1139728659889306&amp;set=gm.5020038081345411&amp;type=3', 'https://www.facebook.com/bhsktreem/videos/268495148437435/', 'https://www.facebook.com/NghiPhan307/videos/797502694250162/', 'https://www.facebook.com/photo.php?fbid=5767955839888848&amp;set=gm.2833880830198043&amp;type=3', 'http://vaa.com.vn/hop-dong-thu-viec-co-phai-dong-bao-hiem-bat-buoc-khong/', 'https://www.facebook.com/photo.php?fbid=4406141939453374&amp;set=a.433930706674537&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4232157090206168&amp;set=a.274214349333815&amp;type=3', 'https://www.facebook.com/buudienxatulap/videos/2879334825665088/', 'https://diendandoanhnghiep.vn/chuyen-gia-ly-giai-ket-du-cac-quy-bao-hiem-204555.html', 'https://www.facebook.com/photo.php?fbid=2363547307110483&amp;set=a.291844564280778&amp;type=3', 'https://hocvienbaohiem.vip/huong-dan-ky-nang-tu-van-bao-hiem-truc-tuyen-thong-qua-danh-thiep-dien-tu-ban-hang', 'https://sanbonbanh.com/sellcar/mitsubishi-triton/Mitsubishi-Triton-4x2-AT-Mivec-2020-380661.html', 'https://www.facebook.com/photo.php?fbid=2152580731548789&amp;set=a.102518416555041&amp;type=3', 'https://www.facebook.com/buudienbacgiang/videos/370649188003557/', 'https://www.facebook.com/photo.php?fbid=2861379320842576&amp;set=gm.883878635859858&amp;type=3', 'https://www.facebook.com/MiumiuVnxk/photos/a.2023626704439595/2271081433027453/?type=3', 'https://www.facebook.com/photo.php?fbid=3005622493088492&amp;set=a.2940541542929921&amp;type=3', 'https://www.facebook.com/groups/1015109272231447/permalink/1128345550907818/', 'https://youtu.be/Ke5Cutl6O0E', 'https://www.manulife.com.vn/', 'https://kiemsat.vn/infographic-nhung-chinh-sach-noi-bat-co-hieu-luc-tu-thang-9-2021-62236.html', 'https://www.facebook.com/photo.php?fbid=3634840290074507&amp;set=a.1391147364443822&amp;type=3', 'https://www.facebook.com/photo.php?fbid=958114284748058&amp;set=a.113436975882464&amp;type=3', 'https://www.facebook.com/truc.gau.7106/videos/431787781496213/', 'https://youtu.be/KEqhiqOghj0', 'https://thebank.vn/blog/17967-vo-tinh-nhung-chua-bao-gio-toi-hoi-han-khi-tham-gia-bao-hiem-nhan-tho.html', 'https://www.facebook.com/vieclamdalat/photos/a.291583081030102/1704215516433511/?type=3', 'https://www.facebook.com/photo.php?fbid=1032586854168234&amp;set=a.177450479681880&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1501119420221716&amp;set=a.107269572940048&amp;type=3', 'https://www.facebook.com/dao.lethi.35380/videos/200943928686824/', 'https://laodong.vn/ban-doc/dong-bao-hiem-xa-hoi-hon-10-nam-bao-nhieu-lau-nua-duoc-huong-luong-huu-946199.ldo', 'https://www.facebook.com/photo.php?fbid=3119942261572793&amp;set=a.1403326769901026&amp;type=3', 'https://www.facebook.com/ACCESSTRADEVN/photos/a.832844213476752/4296293723798433/?type=3', 'https://www.facebook.com/108197927992619/photos/a.108355057976906/208593347953076/?type=3', 'https://www.facebook.com/photo.php?fbid=1906737486173997&amp;set=a.114364975411266&amp;type=3', 'https://www.facebook.com/vnpt.thanhhoa.7/photos/a.459941537411536/5956831167722518/?type=3', 'https://www.facebook.com/photo.php?fbid=1138148840047288&amp;set=gm.2717283628572622&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1014219039374651&amp;set=gm.377697233873935&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1233249470471264&amp;set=a.125960991200123&amp;type=3', 'https://vt.tiktok.com/ZSJc1mpUF/', 'https://www.facebook.com/MBTQ520/photos/a.643139209170069/1983297178487592/?type=3', 'https://www.facebook.com/photo.php?fbid=1779361685568727&amp;set=a.1529976147173950&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1228992657897298&amp;set=a.121884865274755&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2753411421618643&amp;set=a.1380917268868072&amp;type=3', 'https://www.facebook.com/BaloUek/photos/a.2053681184904370/3014382765500869/?type=3', 'https://www.facebook.com/jiang.ruan.9/videos/870542183896928/', 'https://www.facebook.com/photo.php?fbid=2036214586516692&amp;set=a.298037467001088&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1917625565062239&amp;set=a.1651410615017070&amp;type=3', 'https://www.facebook.com/photo.php?fbid=548274652954801&amp;set=a.102934014155536&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2995411467370294&amp;set=a.1596657920578996&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1502650440080889&amp;set=a.1159187824427154&amp;type=3', 'http://hiephoanet.vn/diem-moi-ve-quyen-loi-bhyt-khi-thuc-hien-gian-cach-theo-chi-thi-16/', 'https://youtu.be/Jk07Ts6lCqU', 'https://www.facebook.com/photo.php?fbid=135308345463600&amp;set=a.101160892211679&amp;type=3', 'https://www.facebook.com/photo.php?fbid=876866246539589&amp;set=a.107243740168514&amp;type=3', 'https://www.facebook.com/photo.php?fbid=533673351219318&amp;set=a.211133010140022&amp;type=3', 'https://www.facebook.com/photo.php?fbid=5973353742736431&amp;set=a.767577149980809&amp;type=3', 'https://www.facebook.com/Vovlive.vn/videos/4596430400366965/', 'https://www.facebook.com/100063685595493/videos/819779955387366', 'https://cafef.vn/do-anh-huong-covid-19-khach-hang-khong-di-nop-phi-duoc-hop-dong-bao-hiem-co-bi-mat-hieu-luc-20210827100912889.chn', 'https://www.facebook.com/photo.php?fbid=1859649520883288&amp;set=a.101644123350512&amp;type=3', 'https://www.facebook.com/100055288871493/videos/1014086459391760', 'https://www.facebook.com/photo.php?fbid=2986135238302003&amp;set=a.1374513349464208&amp;type=3', 'https://www.facebook.com/giaiphaptaichinhthongminh.vn/videos/990947995016730/', 'https://www.facebook.com/VIETVnetwork/videos/988983898353651/', 'https://www.facebook.com/photo.php?fbid=1206680503167444&amp;set=a.1171857216649773&amp;type=3', 'https://www.facebook.com/tra.ho.58/videos/555717335576436/', 'https://vienketoan.vn/nhung-diem-moi-ve-luat-bao-hiem-xa-hoi-tu-ngay-01-09-2021.html', 'https://shorten.asia/FhgT2H3E', 'https://www.facebook.com/photo.php?fbid=379777400267867&amp;set=a.150651363180473&amp;type=3', 'https://gialainews.com/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin/', 'https://go.isclix.com/deep_link/5707561802558692882/5273450678010925049?url=https%3A%2F%2Fbaohiemtructuyen.com.vn%2Fhome', 'https://www.facebook.com/photo.php?fbid=4379153888816943&amp;set=a.503282653070772&amp;type=3', 'https://www.facebook.com/photo.php?fbid=601746794152582&amp;set=a.314045809589350&amp;type=3', 'https://www.baogiaothong.vn/ban-bao-hiem-xe-o-to-ngay-tai-quay-lam-thu-tuc-dang-kiem-co-pham-luat-d521720.html', 'https://www.facebook.com/photo.php?fbid=1823332834540742&amp;set=a.108247319382644&amp;type=3', 'https://www.facebook.com/baolanhvienphitoancauDAIICHILife/photos/a.133716400714626/1013719152714342/?type=3', 'https://www.facebook.com/vieclamCPM/photos/a.617137395102428/2021648251317995/?type=3', 'https://www.facebook.com/photo.php?fbid=359932685806799&amp;set=a.116591403474263&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2946331435615220&amp;set=a.1387009104880802&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2413812068752462&amp;set=a.103200176480341&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1667132860342924&amp;set=a.1319095015146712&amp;type=3', 'https://www.facebook.com/vanchuyenchaua/photos/a.100691918886397/144235301198725/?type=3', 'https://www.facebook.com/photo.php?fbid=1459728497735195&amp;set=gm.1500133170340987&amp;type=3', 'https://m.cafef.vn/khi-chuyen-tu-dong-bhxh-bat-buoc-sang-tu-nguyen-nguoi-lao-dong-can-chu-y-dieu-nay-20210826140311071.chn', 'https://www.facebook.com/photo.php?fbid=528675401679919&amp;set=a.111102813437182&amp;type=3', 'https://www.facebook.com/photo.php?fbid=625996331720618&amp;set=a.110660879920835&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1991397504345881&amp;set=a.113164922169158&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2047794922043002&amp;set=a.104774936345020&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1507033716304312&amp;set=a.135892686751762&amp;type=3', 'https://www.facebook.com/photo.php?fbid=864933050796098&amp;set=a.619393335350072&amp;type=3', 'https://youtube.com/watch?v=hFbKWY3IO5g&amp;feature=share', 'https://tintucthuongnhat.com/vua-xong-nam-thanh-nien-chong-doi-cam-d%ce%b1%cf%83-d-am-can-bo-kiem-dich-x%cf%85y%d1%82-c%d0%bde%d1%82/', 'https://www.facebook.com/photo.php?fbid=4258025774251315&amp;set=a.3613618415358724&amp;type=3', 'https://genvita.vn/bai-bao/2019/03/bao-hiem-phi-nhan-tho-chon-lua-thong-minh-cho-nhung-rui-ro-bat-ngo', 'https://www.facebook.com/photo.php?fbid=3962276277210122&amp;set=a.265372916900495&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4183677835083749&amp;set=a.534661726652063&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3464191693804217&amp;set=a.1380201942203213&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2988441631395657&amp;set=a.1618182915088209&amp;type=3', 'http://saiggonlife.com/tin-tuc/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin.html', 'https://yeah1new.com/phim-anh/lu-nao-voi-pha-be-lai-penthouse-3-dan-tae-su-ryeon-dua-nhau-xuong-mo-seo-jin-lo-cot-trum-cuoi-than-nhien-an-mung-sau-tham-sat-hera/', 'https://www.facebook.com/gochaipage/videos/243265507541293/', 'https://www.facebook.com/groups/1487688054826966/permalink/2931126453816445/', 'https://www.facebook.com/photo.php?fbid=4946663628696579&amp;set=a.537395399623446&amp;type=3', 'https://www.facebook.com/100033091012320/videos/957990491417113', 'https://www.facebook.com/photo.php?fbid=3655007421391312&amp;set=a.3376538309238226&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4788061287872223&amp;set=a.724418097569916&amp;type=3', 'https://shorten.asia/RVkw91an', 'https://www.facebook.com/tranvietmb/videos/895051764553600/', 'https://www.facebook.com/photo.php?fbid=1498645813810201&amp;set=a.148877482120381&amp;type=3', 'https://www.facebook.com/LongCruise.mec/videos/2500053876797040/', 'https://www.facebook.com/ilovevcb/photos/a.174860506001404/2082143825273053/?type=3', 'https://www.facebook.com/100003847595091/posts/2012973658840868', 'https://www.facebook.com/101693012248291/photos/a.101694855581440/101818265569099/?type=3', 'https://www.facebook.com/photo.php?fbid=2044767479010922&amp;set=a.107250882762601&amp;type=3', 'https://www.facebook.com/benhviendakhoaphuongdong/videos/561483348385452/', 'https://youtu.be/lzfVTaEFm14', 'https://www.facebook.com/photo.php?fbid=2664124107222554&amp;set=a.1383688315266146&amp;type=3', 'https://247tradingpro.com/cac-ga-khong-lo-cong-nghe-du-dinh-chi-hang-ty-usd-cho-an-ninh-mang/', 'https://www.facebook.com/photo.php?fbid=4258788270901940&amp;set=a.305198602927613&amp;type=3', 'https://www.facebook.com/photo.php?fbid=990509805061168&amp;set=a.112886889490135&amp;type=3', 'https://www.facebook.com/groups.luatgiaothong/videos/2317350765033523/', 'https://www.facebook.com/photo.php?fbid=1121584084917710&amp;set=a.103270210082441&amp;type=3', 'https://www.facebook.com/photo.php?fbid=327399822403749&amp;set=a.214818813661851&amp;type=3', 'https://baoangiang.com.vn/diem-moi-ve-quyen-loi-bao-hiem-y-te-khi-thuc-hien-gian-cach-theo-chi-thi-16-a311613.html', 'https://vieclamdanang.edu.vn/thuyet-trinh-vien-24170.html', 'https://www.facebook.com/tinnhanhphoyenThainguyen24H/photos/a.117153516868274/333779991872291/?type=3', 'https://www.facebook.com/ebaohiem/photos/a.608668622499713/4648624775170724/?type=3', 'https://www.facebook.com/anhhhminhh/photos/a.2989661654638203/2989981011272934/?type=3', 'https://www.facebook.com/100005661738674/videos/204894981691615', 'https://www.facebook.com/mbageaslife.official/photos/a.1437296173001912/4454797757918390/?type=3', 'https://www.facebook.com/websosanhbaohiem/photos/a.107026567578990/367388591542785/?type=3', 'https://toquoc.vn/bao-hiem-that-nghiep-thuc-su-di-vao-cuoc-song-tro-thanh-cuu-canh-cho-nguoi-lao-dong-20210811121442872.htm', 'https://www.facebook.com/tuvandichvubaohiemVietNam/photos/gm.908850339704450/1095214851008531/?type=3', 'https://www.facebook.com/photo.php?fbid=1828575213989752&amp;set=a.101865363327421&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3993190284120632&amp;set=a.187209534718745&amp;type=3', 'https://www.facebook.com/100006005162066/videos/584875805864134', 'https://www.facebook.com/photo.php?fbid=3177714855848362&amp;set=a.1397498237203375&amp;type=3', 'https://maps.app.goo.gl/8HZ9dKRkbrFUfX3cA', 'https://asianlink.org.vn/?aff=HN13333266&amp;p=tuyendung', 'https://www.facebook.com/photo.php?fbid=5982319835172494&amp;set=a.274725302598671&amp;type=3', 'https://www.facebook.com/100008511675204/videos/579378833218875', 'http://tinhangngay365.com/tin-tuc/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin.html', 'https://www.facebook.com/nhakhoahome/photos/a.134896683830726/841800116473709/?type=3', 'https://vneconomy.vn/lao-dong-cua-hon-23-300-don-vi-duoc-xac-nhan-ho-tro-tu-goi-26-000-ty-dong.htm', 'https://newstk.net/vi/news/Tin-tuc/khi-nao-nen-mua-bao-hiem-nhan-tho-1039.html', 'https://www.facebook.com/photo.php?fbid=1053394605200302&amp;set=a.102011640338608&amp;type=3', 'http://thoibaotaichinhvietnam.vn/pages/tien-te-bao-hiem/2021-08-27/huong-dan-dang-ky-online-nhan-luong-huu-qua-tai-khoan-ngan-hang-110072.aspx', 'https://www.facebook.com/photo.php?fbid=2058649400961661&amp;set=gm.1533844946963917&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4183629065080453&amp;set=a.350982625011802&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4379487262164973&amp;set=a.155486411231767&amp;type=3', 'https://rd.zapps.vn/detail/161681169169847661?zl3rd=815789662550058820&amp;id=9bd1bdb2ecf705a95ce6', 'https://www.facebook.com/photo.php?fbid=2979138082402646&amp;set=a.1443400189309784&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1138444413351064&amp;set=gm.887863215414384&amp;type=3', 'https://www.facebook.com/100041614788044/posts/697543214976165', 'https://sanbonbanh.com/sellcar/ford-ranger/Ford-Ranger-Limited-2-0L-4x4-AT-2021-380709.html', 'https://www.facebook.com/lehoanghai.tgd.tca/videos/202594078517215/', 'https://www.facebook.com/buudiendaklak/videos/316576230263705/', 'https://www.facebook.com/photo.php?fbid=3553280471441944&amp;set=a.3068746923228637&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4259068207540613&amp;set=a.305198602927613&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2370548403077682&amp;set=gm.3783920061707461&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1723395041184812&amp;set=gm.587094102645236&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1083662902376828&amp;set=a.109852213091240&amp;type=3', 'https://www.facebook.com/24hdaknong/photos/a.110560380563023/369301204688938/?type=3', 'https://www.facebook.com/photo.php?fbid=421555336059643&amp;set=a.103362524545594&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3062259437338496&amp;set=a.1375530076011449&amp;type=3', 'https://baolaocai.vn/bai-viet/346524-tham-tang-qua-cac-chot-kiem-dich-cao-toc-noi-bai--lao-cai', 'https://www.facebook.com/photo.php?fbid=3990770947695272&amp;set=a.346392778799792&amp;type=3', 'http://otohay.net/bao-hiem-vat-chat-xe-oto-va-nhung-dieu-can-biet/', 'https://www.facebook.com/photo.php?fbid=1450688125303474&amp;set=a.1409971882708432&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2887876024762515&amp;set=a.1456974554519343&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2159983134144108&amp;set=a.152933031515805&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1947112802118882&amp;set=a.132774883552692&amp;type=3', 'https://www.facebook.com/doanhoitaichinh/photos/a.540181986069948/4408411969246911/?type=3', 'https://www.facebook.com/lcdkhoacodienvnua/photos/a.928454470586201/4070686346362982/?type=3', 'https://www.facebook.com/photo.php?fbid=3053331011655620&amp;set=a.2841251576196899&amp;type=3', 'https://www.facebook.com/vidientuvtcpay/photos/a.512552588809895/4444608042270977/?type=3', 'https://nld.com.vn/phap-luat/nguoi-dan-ong-co-3-tien-an-dap-bop-co-cong-an-truc-chot-kiem-soat-dich-covid-19-20210825195422679.htm', 'https://www.facebook.com/phinhanthocathay/photos/a.123773653140801/189429366575229/?type=3', 'https://www.facebook.com/photo.php?fbid=4615376798494391&amp;set=a.577158948982883&amp;type=3', 'https://www.facebook.com/photo.php?fbid=892947161570849&amp;set=a.141971083335131&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4613488808663348&amp;set=a.3746556592023245&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2672182466423025&amp;set=a.1391196171188334&amp;type=3', 'https://www.facebook.com/OtoXuyenMoc/videos/188190300047009/', 'https://www.facebook.com/photo.php?fbid=1456596568029655&amp;set=a.121751448180847&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1354538418274541&amp;set=a.114429952285400&amp;type=3', 'https://www.facebook.com/TinhthanViet/photos/a.479740572842347/1021943608622038/?type=3', 'https://www.facebook.com/photo.php?fbid=2152676468213333&amp;set=a.106671996147134&amp;type=3', 'https://www.facebook.com/kadin.nguyen/videos/820461815190640/', 'https://baoxaydung.com.vn/3-doi-tuong-phai-mua-bao-hiem-bat-buoc-trong-hoat-dong-dau-tu-xay-dung-313222.html', 'https://www.facebook.com/vaytienbangdangkyxemayotof88/photos/a.118679510031978/309573224275938/?type=3', 'https://vietbao.vn/huong-dan-gui-ho-so-qua-buu-dien-o-tp-hcm-259033.html', 'https://www.facebook.com/photo.php?fbid=1634067653462945&amp;set=a.143646555838403&amp;type=3', 'https://laodong.vn/ban-doc/tham-gia-bao-hiem-xa-hoi-18-nam-thoi-diem-nghi-huu-ra-sao-944687.ldo', 'https://www.facebook.com/photo.php?fbid=1701593276717444&amp;set=a.435604773316307&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1410910479292838&amp;set=gm.278313527052943&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4246846285434838&amp;set=a.135502353235939&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1318859868529760&amp;set=a.247873542295070&amp;type=3', 'https://newsonline36.com/chu-xe-o-to-co-the-mua-bao-hiem-theo-chu-ky-dang-kiem/', 'https://www.facebook.com/103829151121696/videos/1004645490333435/', 'https://www.facebook.com/photo.php?fbid=2985725244977283&amp;set=gm.1803086589882738&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4255819554532145&amp;set=a.305198602927613&amp;type=3', 'https://www.facebook.com/nhquangassociates/photos/a.3881324361897291/4817744418255276/?type=3', 'https://www.facebook.com/photo.php?fbid=1459726264402085&amp;set=a.1275905699450810&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1479225889077802&amp;set=a.1289084131425313&amp;type=3', 'https://www.facebook.com/kool.nhok.182/videos/303044718257601/', 'https://www.facebook.com/photo.php?fbid=2048498251967572&amp;set=a.195982127219203&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1365059147263141&amp;set=a.134079587027776&amp;type=3', 'https://www.facebook.com/photo.php?fbid=10216244027492158&amp;set=a.4412752575752&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3089320077968053&amp;set=a.1554405898126153&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2610702842559125&amp;set=a.1469679333328154&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1956972857809943&amp;set=a.134427346731179&amp;type=3', 'https://www.facebook.com/tca.bhnt/photos/a.944684645546799/4927084543973436/?type=3', 'https://www.facebook.com/jenny.sumo/videos/1727533477432349/', 'http://baodongnai.com.vn/bandoc/202108/nhieu-quy-dinh-moi-doi-voi-nguoi-lao-dong-tham-gia-bao-hiem-xa-hoi-bat-buoc-3075777/', 'https://www.facebook.com/photo.php?fbid=2856821944571852&amp;set=a.1477990262455034&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3015474052044969&amp;set=a.1380426215549769&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2719478661683526&amp;set=a.2446826788948716&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2698362103633080&amp;set=a.260368324099149&amp;type=3', 'https://www.facebook.com/photo.php?fbid=351966453303763&amp;set=a.104619024705175&amp;type=3', 'https://www.giadinhmoi.vn/tu-1-9-nhieu-thay-doi-lon-anh-huong-den-nguoi-tham-gia-bao-hiem-xa-hoi-d61821.html', 'https://www.facebook.com/photo.php?fbid=1690568961129953&amp;set=a.1566764380177079&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1564409637223860&amp;set=a.1563658993965591&amp;type=3', 'https://vics-corp.com/hoa-giai---phuong-an-toi-uu-trong-giai-quyet-tranh-chap-ve-bao-hiem-2', 'https://m.plo.vn/ban-doc/vien-chuc-co-duoc-giam-dong-bao-hiem-trong-mua-dich-1010535.html', 'https://www.facebook.com/congtybaohiempvihue/photos/a.297005747090529/3000923136698763/?type=3', 'https://bit.ly/2Wowo6z', 'https://www.manulife.com.vn/vi/bao-hiem-online/shopee.html', 'https://www.facebook.com/photo.php?fbid=1900555260128996&amp;set=gm.1722131414649450&amp;type=3', 'https://www.facebook.com/photo.php?fbid=804956640169098&amp;set=a.107692236562212&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4403294176404817&amp;set=a.4403295996404635&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2638769659602235&amp;set=a.163057430506816&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2194153697394442&amp;set=a.107488272727672&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1807536782753282&amp;set=a.116703625169948&amp;type=3', 'https://www.facebook.com/photo.php?fbid=826033351414885&amp;set=a.108009083217319&amp;type=3', 'https://www.facebook.com/photo.php?fbid=570954800951800&amp;set=gm.955845628328843&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3096482707299168&amp;set=a.1386229978324458&amp;type=3', 'https://www.facebook.com/phapluatkinhdoanhbaohiem/photos/a.381310240222487/381969810156530/?type=3', 'https://www.facebook.com/photo.php?fbid=2029633057191196&amp;set=a.1272955382858971&amp;type=3', 'https://www.facebook.com/groups/865629204136789/permalink/873154970050879/', 'https://vieclamdanang.edu.vn/chuyen-vien-dao-tao-24169.html', 'https://www.facebook.com/photo.php?fbid=2610704985892244&amp;set=a.1469679333328154&amp;type=3', 'https://www.facebook.com/Daotao.ULSA/photos/a.130016631033227/834579783910238/?type=3', 'https://www.facebook.com/photo.php?fbid=759343295023163&amp;set=a.109634896660676&amp;type=3', 'https://www.facebook.com/groups/2239762169422494/permalink/4353863328012357/', 'https://www.facebook.com/photo.php?fbid=2054032244735507&amp;set=a.234778926660857&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2622542774708442&amp;set=a.1386456768317055&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4589058144467389&amp;set=a.485644808142097&amp;type=3', 'https://hocvienbaohiem.vip/lam-sao-tuyen-duoc-ung-vien-la-giao-vien', 'https://www.facebook.com/photo.php?fbid=877986716467325&amp;set=a.116501642615840&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1003654017136324&amp;set=a.114224552745946&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1918842254943343&amp;set=gm.2364367707029049&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1958682254305397&amp;set=a.265994380240868&amp;type=3', 'https://www.facebook.com/2131054930238284/photos/a.2656996727644099/4565284466815306/?type=3', 'https://youtube.com/watch?v=w0JIRhYM95Q', 'https://thebank.vn/blog/18628-cac-benh-khong-duoc-mua-bao-hiem-va-nhung-dieu-can-luu-y.html', 'https://www.facebook.com/Dongphungaymoi/photos/a.257528615027861/944370009677048/?type=3', 'https://www.facebook.com/photo.php?fbid=534899197578163&amp;set=a.107700823631338&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2990843794507510&amp;set=a.1485868208338417&amp;type=3', 'https://tamkhoatech.vn/mbiz360-giai-phap-tiet-kiem-cuoc-vien-thong-trong-dich-covid-19/', 'https://www.facebook.com/photo.php?fbid=2271778756298180&amp;set=a.326609510815124&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2999625590307490&amp;set=a.1397314740538591&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1509977809347284&amp;set=a.112800885731657&amp;type=3', 'https://www.facebook.com/photo.php?fbid=3138341376452951&amp;set=a.1837823426504759&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2370549879744201&amp;set=gm.808067829871887&amp;type=3', 'https://www.facebook.com/Baohiemagribank.HO/photos/a.148220787091968/327990509114994/?type=3', 'https://www.facebook.com/photo.php?fbid=2592565130888897&amp;set=a.2536373959841348&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4546307005478046&amp;set=a.3089122057863222&amp;type=3', 'https://www.facebook.com/letoan.letoan.790/videos/366861098363529/', 'https://huflit.edu.vn/tin-tuc/thong-bao-v-v-tham-gia-bao-hiem-y-te-bao-hiem-tai-nan-doi-voi-sinh-vien-nam-hoc-2021-2022-1650.html', 'https://m.cafef.vn/bao-hiem-fwd-ghi-nhan-danh-hieu-thanh-tuu-tron-doi-cho-tu-van-tai-chinh-20210803152107498.chn?zarsrc=31&amp;utm_source=zalo&amp;utm_medium=zalo&amp;utm_campaign=zalo', 'https://www.facebook.com/photo.php?fbid=2275976632545380&amp;set=a.1932020326941014&amp;type=3', 'https://rd.zapps.vn/detail/2929392022858290806?zl3rd=815789662550058820&amp;id=e33e310664438d1dd452&amp;zarsrc=1303&amp;utm_source=zalo&amp;utm_medium=zalo&amp;utm_campaign=zalo', 'https://www.facebook.com/photo.php?fbid=690096241948153&amp;set=a.102498910707892&amp;type=3', 'https://nhipsongdoanhnghiep.cuocsongantoan.vn/viec-lam/tranh-thu-nguon-luc-hon-900000-ty-dong-ket-du-quy-bao-hiem-xa-hoi-va-bao-hiem-that-nghiep-3569239.html', 'https://www.facebook.com/photo.php?fbid=6071050369631713&amp;set=a.583244811745657&amp;type=3', 'https://www.facebook.com/photo.php?fbid=983076309154064&amp;set=a.847490236046006&amp;type=3', 'https://www.facebook.com/tuvanduhocnhatdanang/photos/a.1466771660263944/2959075971033498/?type=3', 'https://www.facebook.com/buudientinhkhanhhoa/videos/371923341269360/', 'https://www.facebook.com/photo.php?fbid=382549349976840&amp;set=a.231857238379386&amp;type=3', 'https://www.facebook.com/601333326940062/photos/a.619970691742992/1137643119975744/?type=3', 'https://vietstock.vn/2021/08/de-xuat-dung-tien-quy-bao-hiem-that-nghiep-du-mua-vac-xin-cho-cong-nhan-3113-886682.htm', 'https://www.facebook.com/BaohiemChubbLifeVietnam/videos/264521131902085/', 'https://youtu.be/p82RaMm-NAc', 'http://thoisu.net/tin-tuc/nong-huong-dan-cap-lai-doi-the-bao-hiem-y-te-khong-thay-doi-thong-tin.html', 'https://www.facebook.com/VinMartSonLa/photos/a.585107418784820/870022760293283/?type=3', 'https://www.facebook.com/tuyendungbhx/photos/a.600097346778381/4389961897791888/?type=3', 'https://www.facebook.com/105735334593853/videos/208277151284613/', 'https://www.facebook.com/dung.bui.969/videos/1174519436287105/', 'https://thebank.vn/blog/20297-dieu-gi-la-quan-trong-nhat-khi-mua-bao-hiem-nhan-tho.html', 'https://www.facebook.com/photo.php?fbid=1012750935967246&amp;set=gm.4457915320941538&amp;type=3', 'https://www.facebook.com/578065245865249/photos/a.579176795754094/1556704368001327/?type=3', 'https://www.facebook.com/TIDOLIFE4.0/photos/a.1037751252977143/4386865154732386/?type=3', 'https://www.facebook.com/photo.php?fbid=4792000380814513&amp;set=a.3591521510862412&amp;type=3', 'https://tnktvmblog.wordpress.com/2021/08/26/cxn_082621_15-638_-tat-ca-mn-lao-dong-co-dong-gop-trong-bhxh-bhtn-bao-hiem-that-nghiep-n-en-ung-ho-ctqh-vuong-dinh-hue-dung-ra-bao-ve-tien-dong-gop-cua-ng-lao-dong-trg-nhung-qu-y-nay-trc-gio-trg-c/', 'https://xuatnhapkhauleanh.edu.vn/van-de-ky-hau-don-bao-hiem-hang-hoa-xuat-nhap-khau.html', 'https://www.facebook.com/photo.php?fbid=1290280428057227&amp;set=a.176320879453193&amp;type=3', 'https://www.facebook.com/100005522173619/videos/374315660836326', 'https://www.facebook.com/photo.php?fbid=2603212766491909&amp;set=a.101884033291474&amp;type=3', 'https://live63today.com/csgt-lam-thue/', 'https://www.facebook.com/photo.php?fbid=4708491362494964&amp;set=a.802461646431308&amp;type=3', 'https://www.youtube.com/watch?v=JmsDiAAyNX0', 'https://www.facebook.com/hoangphuong747/videos/3062409844033312/', 'https://www.facebook.com/photo.php?fbid=826767724697562&amp;set=a.104748610232814&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4256468904435942&amp;set=a.658623140887221&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2011283832354816&amp;set=a.1983510035132196&amp;type=3', 'https://www.facebook.com/vbathanhhoa/photos/a.789126141108198/4590513040969470/?type=3', 'https://www.facebook.com/DansinhKhanhHoa/photos/a.101765724512791/577361050286587/?type=3', 'https://www.facebook.com/photo.php?fbid=1485293568536618&amp;set=a.209244852808169&amp;type=3', 'https://www.facebook.com/photo.php?fbid=376046894178994&amp;set=a.107500974366922&amp;type=3', 'https://www.facebook.com/ilovevcb/photos/a.174860506001404/2082896898531079/?type=3', 'https://www.facebook.com/photo.php?fbid=1242164986208690&amp;set=a.103886476703219&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1771579292994131&amp;set=a.101838916634852&amp;type=3', 'https://laodong.vn/cong-doan/nhan-luong-huu-tro-cap-bao-hiem-xa-hoi-thang-9-va-10-vao-cung-1-ky-chi-tra-946008.ldo', 'https://www.facebook.com/101017605646438/posts/101727862242079/', 'https://www.facebook.com/photo.php?fbid=3095563100709678&amp;set=a.1440227889576549&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4591003560939514&amp;set=a.485644808142097&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2881499645434120&amp;set=a.1389952647922168&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2852580124962489&amp;set=a.1402911686596014&amp;type=3', 'https://www.facebook.com/photo.php?fbid=4263590350427381&amp;set=a.252841128169010&amp;type=3', 'https://www.facebook.com/DuQuanCaVNFP/videos/1216898898776904/', 'https://www.facebook.com/photo.php?fbid=6344487765569324&amp;set=a.523626050988887&amp;type=3', 'https://www.facebook.com/photo.php?fbid=1893262020841055&amp;set=a.1732233193610606&amp;type=3', 'https://www.facebook.com/hanwhalifevn/photos/a.552213088122161/4831287293548031/?type=3', 'https://shorten.asia/EkgS8vmH', 'https://www.facebook.com/photo.php?fbid=1841084636086777&amp;set=a.1754014188127156&amp;type=3', 'https://www.facebook.com/hongtranthi.ht/videos/150636563886429/', 'https://www.facebook.com/photo.php?fbid=2973543419529343&amp;set=a.1422739844609716&amp;type=3', 'https://www.facebook.com/photo.php?fbid=578500913335508&amp;set=a.158126738706263&amp;type=3', 'https://vnexpress.net/de-xuat-quy-bao-hiem-that-nghiep-ho-tro-cong-nhan-kho-khan-4345302.html', 'https://www.facebook.com/photo.php?fbid=2063417067160609&amp;set=a.355139174655082&amp;type=3', 'https://www.facebook.com/photo.php?fbid=2938573853049297&amp;set=a.13</t>
   </si>
   <si>
-    <t>{'', '🌿CÙNG BỎ 1 ĐỂ ĐỔI LẤY 100, NHƯNG CHỌN CÁI NÀO?\n---------\nBảo hiểm nhân thọ và xổ số có rất nhiều điểm tương đồng với nhau. Tất cả đều tham gia bằng cách chi ra một số tiền nhỏ để nhận lại số tiền lớn hơn hàng trăm, hàng nghìn lần. Thế nhưng mỗi công cụ lại bị khách hàng đối xử khác biệt.\nXổ số được nhiều người ưu tiên hơn, mỗi ngày mua vài tờ rồi cầu mong. Nhưng bảo hiểm lại bị thờ ơ, dè dặt, thậm chí là từ chối. 3 tờ vé số/ngày 30k, một ngày tham gia bảo hiểm nhân thọ cũng khoảng 30k, ồ sao lại có sự ưu tiên hơn gì ở đây?\nTiếp nhé, nếu đen, chắc chắn bảo hiểm nhân thọ sẽ chi trả. Xổ số thì sao, đen thì chấp nhận mất thôi, may mới được trả. Cần chi phải đợi đến chiều tối mới biết kết quả xổ số, bảo hiểm nhân thọ cam kết với bạn là sẽ được nhân dù may mắn hay đen luôn.\nSuy xét sâu xa hơn, ta còn thấy bảo hiểm nhân thọ nhiều lợi ích hơn hẳn so với mua xổ số. Số tiền đóng hàng ngày đó được tích lũy dần, dù không bao giờ nằm viện cũng không mất đi, còn xổ số, không trúng là mất.\nBây giờ bạn dành 30k đó để mua xổ số hay tham gia bảo hiểm nhân thọ?', 'Còn gì nữa đâu\nMà.khóc với sầu\nCòn gì nữa đâu mà.buồn với nhớ\nCòn đúng 10 bảo hiểm luôn\nVc michos tính cho tui về bảo hiểm Số 0 à', 'BẢO HIỂM TRỢ CẤP TIỀN MẶT của công ty bảo hiểm BẢO HIỂM BẢO MINH\nHỗ trợ tiền mặt nằm viện dành cho những khách hàng ốm đau, bệnh tật và các bệnh nhân nằm viện COVID-19 \n\nCó 3 gói bảo hiểm để khách hàng lựa chọn:\n♦️Gói 1: phí bảo hiểm 600.000, số tiền bảo hiểm lên đến 58.000.000\n♦️Gói 1: phí bảo hiểm 400.000, số tiền bảo hiểm lên đến 52.000.000\n♦️Gói 1: phí bảo hiểm 800.000, số tiền bảo hiểm lên đến 64.000.000\n📲Liên hệ: 0335 271 328', '❤ AI TỪ CHỐI AI❓❓\n\n⭕ Bạn từ chối bảo hiểm là chuyện BÌNH THƯỜNG. Bảo hiểm từ chối bạn, đó mới là CHUYỆN LỚN....vì khi đó chứng tỏ SỨC KHỎE của bạn - thứ giá trị nhất trên cuộc đời này đã lên tiếng cảnh báo. \n\n⭕ Mua sớm 10 năm, còn hơn mua chậm 1 phút 👍\n\n#Thinhnguyen_daiichilife_0938749479\n#Daiichilife_ganbodailau', 'Mũ bảo hiểm xịn xò e cũng xả hết', '😍 NHẬN NGAY VOUCHER KHI MUA ĐƠN BẢO HIỂM TRONG THÁNG 08!\n\n📌 Tháng 08 đã bắt đầu, và cùng hứa hẹn đợt dịch sẽ được đẩy lùi sớm nhất. \nCathay dành tặng khách hàng ưu đãi đặc biệt khi lựa chọn sản phẩm bảo hiểm Cathay tại website chính thức từ ngày 02/08 đến hết ngày 31/08/2021\n🎁 Tặng ngay 𝐯𝐨𝐮𝐜𝐡𝐞𝐫 𝟐𝟎.𝟎𝟎𝟎đ khi mua đơn bảo hiểm xe máy  kèm bảo hiểm người ngồi trên xe và tổng số tiền thanh toán trên 100.000đ\n🎁 Tặng ngay voucher 𝐯𝐨𝐮𝐜𝐡𝐞𝐫 𝟓𝟎.𝟎𝟎𝟎đ khi mua đơn bảo hiểm xe ô tô kèm bảo hiểm người ngồi trên xe.\n🎁 Giao đơn bảo hiểm tận nhà hoàn toàn miễn phí.\n\nChần chừ gì nữa, truy cập và mua ngay thôi!\n👉 Chi tiết chương trình tại: https://bit.ly/3xeZOk8\n\n----------------------------------------------------\nKhi cần hỗ trợ, quý khách có thể liên hệ ngay:\n☎️  028 6288 8385\n🌐  https://www.cathay-ins.com.vn/\n#Cathay #CathayVietnam #Baohiemtructuyen #baohiemonline #baohiemxemay #baohiemdulich #baohiemxeoto #uudai #voucher', 'Em vẫn đang sale mũ bảo hiểm nha mn ơi', 'Hiểu được Bảo Hiểm Nhân Thọ sẽ biết nó rất nhân văn. Mỗi nhà nên có cho mình 1 hợp đồng bảo hiểm nha.', 'TUYỂN DỤNG THÁNG 9\n(Nộp hồ sơ trước 2/9/21)\n\nQuang Huy đang là Quản lý kinh doanh tại AIA\n✔Hơn 10 năm kinh nghiệm trong bảo hiểm và Marketing Quang Huy đã giúp rất nhiều bạn thất nghiệp hoặc tìm thêm thu nhập THÀNH CÔNG\n🕣Hiện nay, do nhu cầu phát triển kế hoạch kinh doanh 2021 \n\nCẦN TUYỂN GẤP \n(Nộp hồ sơ trước 2/9/21)\n\n✔02 Chuyên viên Marketing online\n✔07 Nhân viên phát triển thị trường\n\nQUYỀN LỢI ĐÀO TẠO: Tư vấn online (làm việc không ngại dịch Covid kéo dài)\n\n🎯Ứng viên được đào tạo kiến thức:\n- Tiktok, Face, Youtube miễn phí để áp dụng khi làm việc\n- Được đào tạo kiến thức chuyên môn BẢO HIỂM\n- Được hướng dẫn bí quyết tìm khách hàng\n- Được hướng dẫn tư vấn, chốt hợp đồng và chăm sóc khách hàng\n- Được học để xây dựng kế hoạch phát triển bản thân trở thành triệu phú của các chuyên gia đào tạo hàng đầu thế giới.\n\n🎯QUYỀN LỢI THU NHẬP:\n1.Hỗ trợ tài chính học việc (liên hệ qua điện thoại)\n2.Thu nhập &gt; 9.900.000 đ/tháng\n3.Du lịch và dã ngoại\n4.Quyền lợi thưởng quý, năm, thưởng dài hạn\n5.Xét thăng tiến quản lý\n\n🎯Điều kiện: Làm việc tại Đà Nẵng &amp; Quảng Nam\n1.Có smart phone\n2.Có CMND (chụp ảnh)\n3.Có cả quyển hộ khẩu (chụp ảnh)\n4.Có ảnh chụp bằng điện thoại (giống ảnh thẻ 4x6)\n5.Có thời gian tập trung học qua Zoom 2 ngày.\n🔊Tất cả các hồ sơ này gửi qua Zalo\n☎️Liên hệ: 0774 757 757 hoặc 0856 836 145\nWebsite: tintucbaohiem.online\nYoutube: Quang Huy Bảo Hiểm\nTiktok: Quang Huy Bảo Hiểm\nInstagram: Quang Huy Bảo Hiểm\n#vieclamhapdan #quanghuybaohiem', 'Bạn nói Bảo hiểm không cần thiết? Thế tiền có cần thiết ko???\n\n🍀Bảo hiểm chỉ là tiền viện phí\n\n🍀 Bảo hiểm chỉ là tiền tiết kiệm\n\n🍀 Bảo hiểm chỉ là tiền học vấn\n\n🍀 Bảo hiểm chỉ là tiền hưu trí\n\n🍀Bảo hiểm là TIỀN ĐỂ GIỮ TIỀN\n\nTrên tất cả bảo hiểm là quỹ dự phòng cho những sóng gió cuộc đời ,luôn đảm bảo tâm nguyện bạn đc hoàn thành.\n\nKo ở đâu làm được điều này mà chỉ có các CTY BH mới làm đc. Lựa chọn nằm ở bạn!. Bạn thử tính bạn đc hay mất khi tham gia Bảo Hiểm❤️', 'Gói bảo hiểm ung thư với phí chỉ từ 99K/năm, quyền lợi chi trả gấp đến 1000 lần phí. Đăng ký nhanh chóng và đơn giản!', 'Từ ngày 1-9, nhiều quy định mới liên quan đến quyền lợi của người lao động  tham gia bảo hiểm xã hội bắt buộc, nhất là lao động nữ như: các chính sách trợ cấp một lần, bảo vệ sức khỏe người lao động, vấn đề sức khỏe sinh sản cho lao động nữ… sẽ chính thức có hiệu lực. Qua đó, góp phần nâng cao chất lượng sống cho người lao động, nhất là với lao động nữ.', 'Siêu Thị Bảo hiểm ZALOHA Việt Nam tuyển dụng Thuyết Trình Viên - 211 Nguyễn Hữu Thọ, Hòa Thuận Tây, Hải Châu, TP Đà Nẵng - 0917 981 747', '**MỖI NGÀY 01 BẢN ÁN CÙNG VICS-CORP - NGÀY 27/8/2021**\n\n----\n\nBản án số 21/2020/DS -PT ngày 14-5-2020 của TAND tỉnh tuyên Quang về tranh chấp hợp đồng bảo hiểm xây dựng.\n\n**Nguyên đơn**: Ban Quản lý dự án A\n\n**Bị đơn:** Tổng Công ty cổ phần bảo hiểm Đ(PTI)\n\n**Nội dung vụ việc như sau:**\n\nBan quản lý dự án A được thành lập theo Quyết định số 422/QĐ-UBND ngày 14 tháng 12 năm 2016 của Uỷ ban nhân dân tỉnh Tuyên Quang. Là đơn vị sự nghiệp trực thuộc Uỷ ban nhân dân tỉnh được giao quyền tự chủ, không phải là đơn vị kinh doanh, không có mục đích lợi nhuận, với chức năng là chủ đầu tư các dự án đầu tư xây dựng công trình kết cấu hạ tầng giao thông được giao. \n\nNăm 2016 Ban quản lý tỉnh lộ ADB được giao nhiệm vụ chủ đầu tư Tiểu dự án 1, Dự án xây dựng cầu Bình Ca thuộc dự án đường Hồ Chí Minh đã thực hiện việc lựa chọn nhà thầu gói thầu bảo hiểm xây dựng công trình nêu trên. Tổng Công ty cổ phần bảo hiểm Đ là nhà thầu trúng thầu gói thầu số 06: Bảo hiểm xây dựng công trình Tiểu dự án 1, Dự án xây dựng cầu Bình Ca (bao gồm đường dẫn cầu từ ngã ba Phú Thịnh đến Km124+500QL2) thuộc dự án đường Hồ Chí  Minh theo Quyết định số 638/QĐ-SGTVT ngày 15/9/2016 của Sở Giao thông vận tải tỉnh Tuyên Quang.\n\nBan Quản lý dự án nâng cấp tỉnh lộ ADB và Công ty Bảo hiểm Đ phía Bắc ký hợp đồng số 06/2016/HĐ-BHXD ngày 06/11/2016 về bảo hiểm xây dựng công trình Tiểu dự án 1, Dự án xây dựng cầu Bình Ca (bao gồm đường dẫn cầu từ ngã ba Phú Thịnh đến Km124+500QL2) thuộc dự án đường Hồ Chí Minh.\n\n Trong quá trình thực hiện hợp đồng nêu trên, bên được bảo hiểm cung cấp đầy đủ hồ sơ tài liệu liên quan đến tổn thất cho Bên bảo hiểm; liên tục có các văn bản, giấy mời làm việc và yêu cầu bên bảo hiểm tính toán bồi thường tổn thất do ảnh hưởng của quá trình thi công Tiểu dự án 1, Dự án xây dựng cầu Bình Ca (bao gồm đường dẫn cầu từ ngã ba Phú Thịnh đến Km124+500QL2) thuộc dự án đường Hồ Chí Minh làm rạn, nứt nhà ở, bếp, công trình phụ trợ của 15 hộ gia đình và 01 tổ chức. Tuy nhiên bên bảo hiểm chưa thống nhất ý kiến giải quyết và bồi thường, mặc dù Bên được bảo hiểm liên tục có văn bản yêu cầu giải quyết. \n\n-**&gt; Bên được bảo hiểm đề nghị Bên bảo hiểm thanh toán số tiền bồi thường tổn thất cho 15 hộ gia đình và 01 tổ chức là 507.176.100 VNĐ đã bao gồm 10% thuế GTGT và đã tính mức khấu trừ 10% tổn thất.  **\n\n__________________\n\nMời các thành viên trong nhóm cùng tham gia thảo luận\n\nVics - corp: Great as a smile!', 'Bảo Hiểm Cho BẢN THÂN Có QUAN TRỌNG Không?\nKhi chúng ta mua 1 cái điện thoại, chúng ta sẽ mua bảo hiểm rơi vỡ màn hình, ốp lưng, dán màn hình.\nKhi chúng ta mua một chiếc ô tô, hầu hết chúng ta sẽ mua bảo hiểm cho nó.\nNhưng chúng ta lại e dè khi mua bảo hiểm cho bản thân mình. E dè bảo hiểm cho “máy” kiếm tiền để sắm đc cái ô tô kia, cái đt đó! Kỳ lạ nhỉ?\n\nVẬY, chúng ta có nên mua bảo hiểm để bảo vệ mình trước khi mua bảo hiểm cho các vật ngoài thân không?\n\nTham gia sớm khi còn trẻ và còn khoẻ đó chính là cách tiết kiệm thông minh nhất! Với BH càng chần chừ, càng thiệt!\n\n#ManulifeVietNam', 'Không đeo khẩu trang, không đội mũ bảo hiểm và bị lực lượng chức năng', 'Mũ bảo hiểm thời trang về đủ màu\nLẻ 45k', 'Khi một người khách hàng tìm đến với bảo hiểm sau khi họ vừa trải qua cách ly 21 ngày. Trong 21 ngày, người đó đã chứng kiến những người đồng nghiệp của họ đang khoẻ mạnh bình thường bỗng nhiên trở thành F0 và một trong số những người đồng nghiệp ấy mãi mãi ra đi không được gặp mặt người thân trong gia đình. Việc đầu tiên sau 21 ngày cách ly là họ tìm tư vấn viên để NHỜ TƯ VẤN MỘT HỢP ĐỒNG BẢO HIỂM.\n\n🍀Với công việc này, tụi mình khao khát là có thể làm cho khách hàng NHẬN THẤY GIÁ TRỊ CỦA BẢO HIỂM trước khi họ phải chứng kiến những cảnh mất mát, đau thương ấy.\n\n🍀Đừng trách TƯ VẤN VIÊN BẢO HIỂM làm phiền bạn, mà hãy một lần trân trọng họ vì CHỈ CÓ THỂ LÀ TƯ VẤN VIÊN BẢO HIỂM mới có thể đủ MẶT DÀY để mời bạn tìm hiểu một gói bảo hiểm bảo vệ gia đình bạn, cho dù nó là một gói bảo hiểm 199k ạh.\n\nVì sao tư vấn viên bảo hiểm làm được điều đó? Vì tụi mình ĐÃ CHỨNG KIẾN RẤT NHIỀU SỰ VIỆC mà ở đó giá trị của bảo hiểm là vô cùng tuyệt vời.\n\n#Diệp - Tư vấn viên bảo hiểm nhân thọ\n#Manulife Việt Nam', 'Mọi người nghĩ sao khi tham gia bảo hiểm', 'Xin cái kết của người ngồi sau xe máy không đội mũ bảo hiểm?', 'Xe máy cơ, 8,75, 7,7T', 'Các nhà lãnh đạo doanh nghiệp trong các lĩnh vực từ công nghệ đến bảo hiểm đã cam kết hàng tỷ $ để tăng cường các nỗ lực an ninh mạng.', 'Một ngày thật đặc biệt. Nghề chính là chăm sóc sk cho người dân. Nhưng nghề phụ cũng ko kém phần quan trọng như nghề chính. Tư vấn bảo hiểm nhân thọ. Tích luỹ tài chính,và bảo vệ khách hàng mọi lúc mọi nơi. 2 hợp đồng BHNT với 2 bạn tình nguyện viên CLB máu sẽ được NHTT bảo vệ 15 năm. Cảm ơn 2 bạn đã tin tưởng NHTT và tổng đại lý bảo hiểm nhân thọ TCA.', 'Con thuyền lớn luôn vững vàng tiến về phía trước! \nNhững giải thưởng Toàn cầu mà AIA vừa nhận được là những minh chứng rõ nét cho quy mô, sức mạnh và vị thế của một Tập đoàn Bảo hiểm hàng đầu thế giới!\n#AIA, #MDRT', 'HỢP ĐỒNG SỐNG ĐỘNG, KHÁCH HÀNG AN TÂM SỐNG ĐẦY\n\nBảo hiểm FWD - Bảo hiểm dễ hiểu với cải tiến đột phá trong việc "dễ hiểu hóa bảo hiểm" để khách hàng có thể có những trải nghiệm tối ưu như Hợp đồng dễ đọc, quyền lợi dễ hiểu, dễ mua và dễ yêu cầu quyền lợi. \n\nLuôn yên tâm vì FWD luôn bên cạnh, cùng bạn #Sớmbảovệ bản thân và gia đình từ hôm nay!\n#FWDbảohiểmdễhiểu #FWDSớmbảovệ', '💥 Mình không thuộc đối tượng tham gia Bảo Hiểm Nhân Thọ đâu !\n\n💥 Trao gửi công cụ tự khám sức khỏe Tài Chính; giải pháp tự vá lỗ hổng Tài chính \n       \n💥 Thông qua công cụ từ đòn bẩy tài chính, mang tên Bảo Hiểm Nhân Thọ. \n\n💥 Hôm nay tối quyết định thành lập kênh video Karlyn Dinh giải pháp tài chính từ Bảo Hiểm Nhân Thọ. \n\n💥 Để trao gửi những giá trị cốt lõi từ Bảo Hiểm Nhân Thọ, những giải pháp tài chính hữu hiệu đến bạn, gia đình và công ty bạn.... \n\n🌟Hãy theo dõi những video tiếp theo của chúng tôi. Để bổ sung gốc nhìn của chính bạn, để thấu hiểu sâu sắc hơn về Bảo Hiểm Nhân Thọ nhé!!! \n\nLiên Hệ: #Karlyn Dinh 0908 009 192 – 0987 812 782. Để được tư vấn rõ thông tin chi tiết nhé! \n#KarlynDinh Phù Thuỷ Tài Chính', '💓 Mua bảo hiểm VBI - Nhận ngay voucher 10.000đ\n\nCơ hội dành riêng cho khách hàng VNPT Pay:\n✅ Nhận ngay Voucher 10.000đ dùng nạp thẻ điện thoại/mua sắm trực tuyến\n✅ Không giới hạn số lần nhận thưởng\n\nÁp dụng khi mua các gói bảo hiểm VBI trên VNPT Pay:\n🔸 Bảo hiểm trách nhiệm dân sự xe máy (khi mua kèm bảo hiểm tai nạn người ngồi trên xe)\n🔸 Bảo hiểm ung thư Vú: gói Pinkcare_Quyến rũ, Pinkcare_Quý phái\n🔸 Bảo hiểm tai nạn con người gói VBI SAFE 1, VBI SAFE 2, VBI SAFE 3\n(*) Không bắt buộc khách hàng mua bảo hiểm cho chính bản thân.\n\nNhanh tay mua ngay, bảo vệ cho mình và người thân yêu từ ngày hôm nay!\n🕐 Ưu đãi diễn ra từ 22/7/2021 - 30/9/2021\n\n👉 Chi tiết xem tại: https://vnptpay.vn/web/khuyenmai/BaohiemVBI_10K\n\n#vidientu #VNPTPay\n------------------------------------\n⬇️ Tải VNPT Pay: https://vnptpay.vn/app/\n🌍 Website: https://vnptpay.vn/\n☎️ Hotline: 1800 1091 (nhánh 3)', '📢📢 TIN VUI, TIN VUI 📢📢 \n💖 VINMART &amp; VINMART+ TIẾP TỤC GIA HẠN GÓI BẢO HIỂM "KHỎE MẠNH TRONG MÙA DỊCH" ĐẾN 31/08/2021 💖\n\n✨ Nhằm chung tay chia sẻ với khách hàng trong thời điểm hiện tại, VinMart &amp; VinMart+ quyết định sẽ tiếp tục gia hạn gói Bảo hiểm "Khỏe mạnh trong mùa dịch" đến 31/08/2021 mới kết thúc.\n\n✨ Chỉ cần hóa đơn 300.000đ trở lên, Quý khách hàng mua sắm tại VinMart&amp;VinMart+ sẽ được gói bảo hiểm an tâm "Khỏe mạnh trong mùa dịch". Tìm hiểu chi tiết về chương trình tại hệ thống gần 2.500 siêu thị VinMart và cửa hàng VinMart+ trên toàn quốc hoặc truy cập: https://emic.vn/static/m_care.pdf\nHoặc hotline tìm hiểu thông tin bảo hiểm: 1900 55 88 91\n\n☎️ Hotline “Đi chợ hộ” mua hàng:0334.759.634\n🚛 Miễn phí giao hàng trong bán kính 5km với hóa đơn từ 300.000₫\n🚛 Giao hàng nhanh chóng.', '🌹🌹 ❓❓ Làm sao tuyển được ứng viên là giáo viên? \n\n🌹🌹 🔰🔰Câu hỏi số 15:\n\n❓❓ Làm sao tuyển được ứng viên là giáo viên?\n\n🔰🔰 Mỗi nhà quản lý trong ngành Bảo hiểm là chủ doanh nghiệp của chính mình trong lòng công ty bảo hiểm. Công tác tuyển dụng là công tác thường xuyên và liên tục. Nhưng để tuyển được ứng viên tiềm năng thật sự không hề dễ dàng.\n\nHy vọng chia sẽ bên trên có thể giúp ích phần nào cho công tác tuyển dụng của nhà quản lý trong ngành Bảo hiểm.\n\n👏👏Ms Andy Đỗ_Giám đốc Chuyển đổi số tại Học viện Bảo hiểm BigFamily.\n\n👉👉 BigFamily là công ty Hậu cần Bảo hiểm và đang cung cấp dịch vụ Danh thiếp Bán hàng/Tuyển dụng giúp Nhà tư vấn/nhà quản lý trong ngành Bảo hiểm có thêm công cụ tư vấn khách hàng/tuyển dụng ứng viên hiệu quả trên Online.\n\n**Cám ơn Anh/chị đã dành thời gian xem và luôn yêu thương Kênh Học viện Bảo hiểm BigFamily. Chúng tôi luôn cố gắng mỗi ngày để mang đến nhiều giá trị hữu ích hơn cho Ngành Bảo hiểm Nhân thọ. Anh/chị nhớ bấm like video, share và subscribe Kênh để ủng hộ đội ngũ của chúng tôi nhé ạ. \n-----------------------------------\n❖ Đăng ký kênh để không bỏ lỡ những videos mới nhất của kênh Học viện Bảo hiểm nhé ạ ❖\n► Subscribe: https://bit.ly/3zTp80y\n-----------------------------------\nCông ty Công nghệ Hậu cần Bảo hiểm BigFamily\nEmail contact: wecare@bigfamily.vn\n\nMời Anh/Chị xem thêm về các nền tảng của BigFamily:\n► Học viện Bảo hiểm BigFamily: https://hocvienbaohiem.vip/\n► Học viện Nhân hiệu BigFamily: https://hocviennhanhieu.vip/\n\nMời Anh/Chị xem thêm về các mẫu Danh thiếp điện tử mà BigFamily đang cung cấp dành riêng cho ngành Bảo hiểm:\n► Mẫu danh thiếp điện tử hỗ trợ bán hàng dành cho tư vấn viên Bảo hiểm: https://bit.ly/3xdVxNJ\n► Mẫu danh thiếp điện tử hỗ trợ tuyển dụng dành cho quản lý ngành Bảo hiểm: https://bit.ly/2Visn2W\n\n© Bản quyền thuộc về Học viện Bảo hiểm BigFamily - Vui lòng không REUP ©\n\n#insurance, #insurtech, #insurancedigitaltransformation, #baohiem, #baohiemnhantho, #daotaobaohiem, #hocvienbaohiem, #kynangbanhang, #kynangtuyendung, #daotaokynang, #kinhdoanhbaohiem, #tuyendungbaohiem\n\nhttps://hocvienbaohiem.vip/lam-sao-tuyen-duoc-ung-vien-la-giao-vien', 'Chơi bảo hiểm là bảo vệ mạng sống của mình chứ không phải nơi sinh lời . Muốn kiếm tiền thì gửi ngân hàng', 'BẢO HIỂM XÃ HỘI KHÁNH HÒA HƯỚNG DẪN CHUYỂN ĐỔI NHẬN LƯƠNG HƯU QUA TÀI KHOẢN NGÂN HÀNG (ATM) \n\nTrong tình hình dịch Covid vẫn còn diễn biến phức tạp, khó lường. BHXH tỉnh Khánh Hòa mong bà con chuyển đổi nhận lương hưu qua tài khoản ATM để hạn chế tiếp xúc nhất có thể. \n\nMọi vướng mắc xin liên hệ ông Đào Xuân Hùng - Phòng Chế độ BHXH - SĐT 0913114243. Bảo Hiểm Xã Hội Tỉnh Khánh Hòa.\n\nTrân trọng cảm ơn và hân hạnh được phục vụ bà con.', 'Đã có nhiều trường hợp nuối tiếc khi đã lờ đi người tư vấn  bảo hiểm cho họ🤔🤔', 'Khách hàng của Kim Thanh có thể nộp phí qua ví viettel pay nhé!', 'Ra bệnh viện mới biết tiền tiêu như thế nào và cũng biết thế nào là không có thu nhập! Có bảo hiểm chi trả Hoa luôn an tâm điều trị.. chọn dịch vụ tốt nhất ...còn những người ko lựa chọn bảo hiểm thì người thân và gd sẽ rất vất vả...', 'Đi xe máy không đeo khẩu trang, không đội mũ bảo hiểm, khi được lực lượng trực chốt kiểm soát Covid-19 nhắc nhở, Trần Văn Thịnh (Hà Nội) đã giật khẩu trang, đ.ạ.p và b.ó.p c.ổ khiến 1 công an bị thương.', 'Đừng làm cả đời để dành tiền đi chữa bệnh hãy bán rủi ro của cả gđ bạn cho công ty bảo hiểm', '‼ 25/8 - Những ngày giãn cách không làm mình xa cách nhau - Cảm ơn CTV  liên tục cấp Bảo hiểm Trách nhiệm dân sự, Bảo hiểm vật chất cho các bác lái xe tải, xe con…‼️‼️\n\n👉👉👉 Có nhu cầu viết Bảo hiểm Xe máy - Ô tô giá ưu đãi liên hệ ngay :\n☎️☎️☎️☎️\nHotline: 0972674485  🎁🎁🎁\n\n#Bảo_hiểm_xe_máy \n#Bảo_hiểm_trách_nhiệm_dân_sự\n#Bảo_hiểm_vật_chất_xe_ôtô\n ship cod toàn quốc 👍', 'BẢO HIỂM HÀNG HÓA VẬN CHUYỂN - AN TÂM TRONG TỪNG CHUYẾN HÀNG\n👌Bảo hiểm các rủi ro từ bên ngoài gây mất mát, tổn thất vật chất đối với hàng hóa được bảo hiểm xảy ra trong quá trình vận chuyển và/hoặc lưu kho tạm thời trong quá trình vận chuyển.\n👌 Bảo hiểm hàng hóa xuất nhập khẩu và hàng hóa vận chuyển nội địa.\n👌 Bảo vệ hàng hóa vận chuyển bằng mọi loại hình vận tải, bù đắp tổn thất trước rủi ro với hàng hóa.\n#baohiemagribank \n#baohiemhanghoavanchuyen', 'Sau 17năm tham gia bảo hiểm Prudential hôm nay là ngày không phải đóng bảo hiểm nữa.\nNói như cách nói của nhân viên tư vấn là ngày đáo hạn hợp đồng.\nNếu không chơi nữa sẽ được hoàn trả cả vốn lẫn bảo tức tích lũy hàng năm.\nSáng nay mình lên văn phòng bảo hiểm Prudential thành phố Bắc Giang.\nTrình bày là sau gần 2 chục năm đóng bảo hiểm với công ty nay đến ngày đáo hạn tôi xin rút tiền để trang trải khó khăn..\nCô nhân viên trả lời là chú tham gia thêm 10 năm nữa.nhưng không phải đóng tiền mỗi năm công ty sẽ trả dần cho chú mấy triệu.\nTôi cũng trình bày là 17 năm tham gia biết bao thăng trầm của cuộc sống lúc tai nạn.\nKhi ốm đau tai biến công ty không biết đấy là đâu.. một lời thăm hỏi cũng không có.\nGiờ có theo thêm 10 năm thì chỉ có lúc chết mới có vòng hoa.\nThôi cho tôi rút.\nTính toán một hồi cô ý bảo là vậy là chú hủy hợp đồng..\nTôi nói thì không tham gia nữa thì hủy..\nVậy là hợp đồng được chấm dứt.\nBạn ý bảo là chú về đi và sau vài ba ngày công ty sẽ chuyển tiền vào tài khoản của chú...\nTổng số tiền được lấy về là 28tr.560 ngàn đồng.\nVề nhà tôi tính là mỗi năm tôi đóng 1.666.000đx17 năm=28.322.000đ\nLúc thời điểm tôi mới tham gia thì mỗi năm đóng 2 chỉ vàng không đủ..\n Vậy mà giờ này được nhận số tiền được coi là hủy hợp đồng như vậy thì mới biết là người tham gia có lợi như thế nào?\nTừ mình mà ra với mức bảo tức tích lũy cực kỳ hấp dẫn trên của công ty bảo hiểm Prudential chắc chắn rất nhiều người tham gia đây...', 'Bảo vệ - hiểm nguy - nguy hiểm = bảo hiểm', 'Trường hợp không còn thuộc đối tượng tham gia bảo hiểm xã hội bắt buộc, người lao động đóng có thể tham gia bảo hiểm xã hội tự nguyện và được cộng dồn với thời gian tham gia bảo hiểm xã hội bắt buộc trước đó.', 'Thông báo về việc thực hiện bảo hiểm y tế học sinh, sinh viên năm học 2021-2022.', 'Fanpage của Diễn đàn Bảo hiểm xã hội và Doanh nghiệp, Người lao động\nhttps://www.facebook.com/groups/DiendanBHXHvaDoanhnghiep', '📣📣 CHUYÊN MỤC VIỆC LÀM NHÂN VIÊN CHÍNH THỨC BÁCH HÓA XANH KHẮP CÁC MIỀN!!\n&gt;&gt; Nhân viên Kho bán hàng, Thu ngân, Bảo vệ siêu thị,...\n&gt;&gt; Anh em mình nhớ đăng ký liền tay nhé: http://tgdd.vn/tuyendungbhx\n&gt;&gt; Tại khu vực TP. HCM, vì lý do dịch bệnh nên nhận việc sau 2 tuần nên cứ mạnh dạn đăng ký ứng tuyển!\n\n🌸 Phỏng vấn online nhanh - gọn - lẹ\n🌸 Là nhân viên BHX, bạn sẽ hưởng mức lương từ 6 - 8 triệu, nhận đầy đủ chế độ phúc lợi như Bảo hiểm y tế, Bảo hiểm xã hội,...\n🌸 Chỉ cần bạn từ đủ 18 - 40, chịu khó, làm được ca xoay, ca đêm thì tự tin ứng tuyển thôi nào!!\n#bhx #bachhoaxanh #tuyendungbachhoaxanh', 'Giờ này đến với bảo hiểm vẫn chưa muộn nếu để gặp chị vi rồi muốn đến với anh bảo hiểm anh ấy ko nhận nữa , bạn nào muốn bảo vệ bản thân và GĐ trong thời điểm này hãy gọi cho tôi , tôi ko hứa cho bạn sức khỏe nhưng tôi hứa công ty bảo hiểm nhân thọ sẽ trả bạn tiền khi sức khỏe của bạn ko còn để lo cho GĐ  công ty bảo hiểm nhân thọ sẽ thay bạn lo tai chính cho GĐ bạn nếu bạn đến với bảo hiểm nhân thọ ngay lúc này .', 'THỜI ĐIỂM TỐT NHẤT ĐỂ THAM GIA BẢO HIỂM NHÂN THỌ?\n\n🌱 Nếu biết trước ngày nào phải nằm viện điều trị 👉 thì hãy tham gia BH trước 30 ngày là TỐT nhất vì thời gian chờ của y tế là 30 ngày.\n\n🌱 Nếu biết trước ngày nào bác sĩ thông báo mắc bệnh hiểm nghèo 👉 thì hãy tham gia trước 90 ngày là TỐT nhất vì đó là thời gian chờ của bệnh trọng.\n\n🌱 Nếu biết trước lúc nào rủi ro tại nạn...👉 chỉ cần tham gia trước 1 phút khi sự kiện xảy ra là TỐT nhất vì với tai nạn, hiệu lực ngay lập tức.\n\n👉 CÒN NẾU KHÔNG CHẮC CHẮN BIẾT TRƯỚC ĐIỀU GÌ THÌ THAM GIA BẢO HIỂM NGAY TỪ HÔM NAY LÀ TỐT NHẤT.\n\nNGÀY HÔM QUA KHÔNG BAO GIỜ TRỞ LẠI VÀ NGÀY MAI CHƯA CHẮC ĐÃ BẮT ĐẦU. CHỈ CÓ NGÀY HÔM NAY LÀ CHẮC CHẮN.', '🔔🔔🔔Bình thường mình ít quan tâm đến bảo hiểm chỉ cần có cái bảo hiểm y tế là yên tâm,  nhưng giờ tình hình dịch bệnh căng thẳng hơn thì mình tìm hiểu được biết đến 1 gói bảo hiểm khá thiết thực và phù hợp cho tất cả mọi người ở thời điểm hiện tại\n1. Phí bảo hiểm thấp\n2. Được chi trả bồi thường cao\n3. Hỗ trợ chi phí điều trị cao. \n4. Đơn vị bảo hiểm uy tín \nNên mình đã quyết định mua cho gia đình và chia sẻ gói bảo hiểm này cho mọi người cùng biết nhanh tay sở hữu cho mình và gia đình 1 gói yên tâm chống dịch!', 'Sắp đến ngày các con đi học , em chạy lô mũ bảo hiểm #85k/1c', 'NGẪM XEM CÓ ĐÚNG KHÔNG NHÉ CẢ NHÀ! 😉😉😉\n🎡Một vị khách hàng nói với tôi là " Đóng bảo hiểm hơn năm chả được cái gì"\nTôi hỏi bạn ấy: "Bạn muốn công ty thanh toán cho bạn cái gì nào. \nBây giờ có: \n- Ốm nằm viện được tiền!\n- Ung thư được tiền!\n- Bệnh lý được tiền!\n- Tai nạn được tiền!\n- Chết được tiền...???? "\nThì bạn ấy ... nghĩ và im lặng.\n🎡SỰ THẬT TRỚ TRÊU\nÔng bán quan tài không muốn nhiều người chết... để bán được nhiều quan tài. Nhưng hàng vẫn chạy!\nCó ai muốn nhận hàng khuyến mại của ông ấky không?\nBác sĩ không mong nhiều bệnh nhân để hưởng lương? Nhưng thu nhập của họ bị phụ thuộc vào số lượng người bệnh và dịch vụ Y khoa.\nNhà thuốc không mong nhiều người ốm để bán nhiều thuốc...Nhưng sự thật vẫn trớ trêu? Kinh doanh thuốc là lãi lớn???\n🎡CHỈ CÓ BẢO HIỂM LÀ MONG GĐ BẠN HẠNH PHÚC, MAY MẮN VÀ GIÀU CÓ MÃI THÔI\nHãy coi bảo hiểm như một lá bùa hộ mệnh cho con bạn, cho vợ bạn, chồng bạn, cho chính bạn. Đó mới chính là cái bạn nên hướng tới.\n#Hieubaohiem', 'BẠN CÓ NHIỀU ÂU LO? MB AGEAS LIFE CÓ VŨ KHÍ CHỐNG MỌI RỦI RO\n\n👉 Để đối phó với COVID-19, bạn cần có vaccine. \n👉 Để đối phó với tia cực tím, bạn cần có kem chống nắng. \n👉 Để đối phó với những rủi ro khó lường trước, bạn cần có Bảo hiểm Bệnh ung thư Ung Dung Sống Trọn của MB Ageas Life. \n\nHãy cùng điểm qua những Quyền lợi bảo hiểm vượt trội có trong sản phẩm này: \n👍QUYỀN LỢI BẢO HIỂM BỆNH UNG THƯ: Nhận ngay 1️⃣0️⃣0️⃣% số tiền bảo hiểm khi có chẩn đoán mắc bệnh.\n👍QUYỀN LỢI BẢO HIỂM SỐNG KHỎE: Nhận thêm 2️⃣5️⃣% số tiền bảo hiểm khi sống khỏe sau 2 năm kể từ ngày chẩn đoán mắc bệnh.\n👍QUYỀN LỢI BẢO HIỂM BỆNH UNG THƯ ĐẶC BIỆT: Nhận thêm 2️⃣5️⃣% số tiền bảo hiểm khi có chẩn đoán mắc các bệnh ung thư đặc biệt.\n\nChỉ với từ 500 đồng/ngày và trả lời 3 câu hỏi sức khoẻ đơn giản là bạn đã được bảo vệ với tổng quyền lợi lên tới 7️⃣5️⃣0️⃣ triệu đồng 🤩🤩\n\nCòn chần chờ gì nữa mà không tham gia ngay hôm nay🤝\n🍀 TVV: 0386992038', 'Chắc hẳn nhiều người cho rằng điều quan trọng nhất khi tham gia bảo hiểm nhân thọ là đảm bảo chi trả quyền lợi bảo hiểm hay phí bảo hiểm thấp, quyền lợi cao, nhiều quyền lợi, điều khoản loại trừ ít,... Tuy nhiên mỗi sản phẩm ...', 'Cùng VietnamWorks cập nhật thêm các chính sách bảo hiểm y tế, bảo hiểm xã hội trong tình hình Covid 19 năm 2021 nhé. 🥰\n#hrinsider', 'Tháng này e Nga đang thiếu 2 chỉ tiêu. ACE tham gia bảo hiểm trong 2 ngày 29&amp;30/8 e Nga tặng quà khủng ạ🎁🎁', 'CÓ THỂ BẠN CHƯA BIẾT.... * Tiền BHNT khi người dân tham gia được đâu tư đi đâu? Và đầu tư như thế nào? * ĐÁP: Cứ 100 đồng bảo hiểm người dân đóng cho các côn...', 'Sau dịch mới là cơn ác mộng thực sự. Hết vốn kinh doanh, trả lãi, nhân sự gãy, khách hàng giảm nhu cầu, cạnh tranh cao, nguyên liệu dịch vụ tăng và sẽ không giảm.  \n\n"Sản xuất kinh doanh bị ảnh hưởng nghiêm trọng bởi Covid-19. Nhiều DN thiếu trầm trọng nguồn tiền để trả lương, bảo hiểm, vốn vay, thuê mặt bằng... \n5 khó khăn lớn các doanh nghiệp đang phải đối mặt, đó là: thiếu hụt dòng tiền; chi phí đầu vào, chi phí vận chuyển tăng; lưu thông hàng hóa bị cản trở; tạm dừng sản xuất tại các khu công nghiệp; khó tiếp cận các gói hỗ trợ của Chính phủ."', '🍀Cty BHNT CHUBBLIFE VN xin gửi lời chia buồn và cảm thông tới gia đình khách hàng với những mất mát trong giai đoạn dịch bệnh Covid. \n\n𝐓𝐔̛̉ 𝐕𝐎𝐍𝐆 vì 𝐂𝐎𝐕𝐈𝐃 có 𝐂𝐇𝐈 𝐓𝐑𝐀̉ 𝐊𝐇𝐎̂𝐍𝐆?\n\n🍀Khách hàng sinh năm 1980 ở Quận 8, chị còn rất trẻ nhưng đã không vượt qua được dịch bệnh đau thương này 😥\n\n👉24/08/21: Người nhà làm thủ tục nộp hồ sơ.\n👉27/08/21: ChubbLife chi trả BH ngay.\n\n✳Tổng số tiền chi trả 330.776.100₫ trong đó: \n✅ Mệnh giá bảo hiểm: 300tr\n✅ Giá trị tài khoản: 30.7tr\n\nHãy tham gia bảo hiểm khi chưa là F0, khi còn bình an để dự phòng biến cố bất ngờ... Bảo hiểm không cứu sống chúng ta nhưng bảo hiểm sẽ thay chúng ta chăm sóc gia đình nếu như rủi ro chẳng may đến.\n\nĐÂY LÀ CA CHI TRẢ của CHUBBLIFE NGÀY HÔM QUA (27/08/2021)\n\nLiên hệ Kim Dung để được tư vấn: 0369729979\n\n#Kim - Dung\n#vibanlanguoiduocchon', 'Hội nghị trực tuyến - Tuyên truyền Bảo hiểm xã hội tự nguyện', 'Góc tuyển dụng - Việc làm ổn định\n\n- Cần tuyển nam nhân viên bảo vệ.\n- Yêu cầu tuổi từ 18 đến 54.\n- Làm việc tại viettel Đà lạt\n* làm ổn định lâu dài sẽ được đóng bảo hiểm xã hội và bảo hiểm y tế\nAi có nhu cầu liên hệ sdt 0868205368.\nTrân trọng!\nhttp://raovatdalat.vn/threads/viettel-lam-dong-can-tuyen-nhan-vien-bao-ve.935067/', 'Đi xe chỉ có 1 mũ thì người ngồi trước đội hay để người sau đội. Hãy xem để có thêm kiến thức nhé. \n\nhttps://vt.tiktok.com/ZSJc1mpUF/', 'Dịch, chưa bệnh thì TỰ DO tham gia bảo hiểm.\nHết dịch lấy chồng, CHƯA CHẮC được TỰ DO tham gia bảo hiểm đâu. ;)', '🔥BẢO HIỂM VỐN 100% NHA QUÝ ZỊ ƠI.  !  ĐỪNG BỎ LỠ CƠ HỘI NÀY 👇\n💲👉Số vốn chỉ 500K CÓ NGAY BẢO HIỂM HOÀN LẠI VỐN 100%\n🌾🏧 Lợi nhuận 100k-300k/ngày\n🔔Đầu tư_An toàn - Tiết kiệm thời gian- Hiệu quả.', 'CÔNG KHAI CÁC DOANH NGHIỆP NỢ ĐÓNG BHXH TRÊN BÁO CHÍ\n\nĐây là nội dung nằm trong Kế hoạch 194/KH-UBND của UBND TP. Hà Nội ngày 26/8/2021 về thực hiện các giải pháp, biện pháp thu hồi nợ đóng bảo hiểm xã hội (BHXH), bảo hiểm y tế (BHYT), bảo hiểm thất nghiệp (BHTN) trên địa bàn Thành phố giai đoạn 2021 - 2025.\n\n#LuatVietnam', 'KINH DOANH BẢO HIỂM BẰNG MARKETING ONLINE NHƯ THẾ NÀO?', 'NGHỀ BẢO HIỂM\n\n- Bảo hiểm là lừa đảo\n\n- Mua bảo hiểm làm gì, còn lâu mới đòi được\n\n- Bảo hiểm là đa cấp...\n\n- Thôi thôi, ăn còn không đủ...lấy đâu tiền mua bảo hiểm\n\nĐó ngôn từ người ta vẫn hay sử dụng để nói với người Tư vấn viên Bảo hiểm -  “Sứ giả” bảo vệ gia đình họ trước “bão tố” cuộc đời.\n\n▪▪▪▪▪▪▪▪▪▪▪▪\n🍃KHÔNG PHẢI BỖNG NHIÊN NGHỀ TƯ VẤN BH ĐƯỢC XẾP VÀO TOP 5 NGHỀ DANH GIÁ NHẤT🍃\n▪▪▪▪▪▪▪▪▪▪▪▪\n\nTôi viết những lời này để dành một lời tri ân sâu sắc dành cho những người làm nghề bảo hiểm chân chính.\n\nBạn bị từ chối vẫn không chùn bước\n\nBạn bị coi thường vẫn vui vẻ bước tiếp\n\nBạn bị quay lưng vẫn quyết tâm đến cùng\n\nBởi vì bạn biết, nếu như bạn không nỗ lực hết mình để giúp khách hàng hiểu thấu đáo ý nghĩa của Bảo hiểm, họ sẽ không được bảo vệ, gia đình họ thậm chí không thể vượt qua khó khăn khi gặp biến cố, nhiều cuộc đời sẽ bị ảnh hưởng nặng nề...\n\nNhững người làm nghề tư vấn bảo hiểm, không chỉ bởi vì họ muốn bán hàng, để có thu nhập...mà hơn cả, họ mang trên mình sứ mệnh của người giúp đỡ. Bởi chính vì họ đã tận mắt chứng kiến những thảm cảnh đau lòng: Những đứa trẻ mất cha mất mẹ, những khách hàng bị bệnh tật- ung thư – tai nạn – tàn tật hết sức thương tâm. Vậy cho nên, họ muốn “níu kéo” bạn hãy tham gia bảo hiểm, càng sớm càng tốt... là vì chính bạn, chứ không chỉ vì họ.\n\nVậy nên, đừng bao giờ đóng cửa trước người Tư Vấn viên bảo hiểm.. Bởi vì, nếu bạn “đóng cánh cửa” với họ, cũng có thể bạn bị những cánh cửa khác đóng lại khi gặp biến cố, rủi ro.', '🎡Một vị khách hàng nói với tôi là " Đóng bảo hiểm hơn năm chả được cái gì"Tôi hỏi bạn ấy: "Bạn muốn công ty thanh toán cho bạn cái gì nào. Bây giờ có: - Ốm ...', '59K....\nMua được gì?\n\n👉 1 li cafe cho buổi sâng?\n👉 1 cốc trà sữa cho buổi chiều?\n👉 1 gói BẢO HIỂM 3 BỆNH NAN Y CHO 1 NĂM?\n\nChúc mọi người có những lựa chọn sáng suốt', 'Giờ em vẫn viết bảo hiểm nhé', 'VIETV Live: Bảo Hiểm Tài Chính cùng Harry Đào (08/26/2021)', 'Thanh xuân như một tách trà\nKhông mua bảo hiểm về già ai chăm\nCó tiền còn có kẻ thăm\nKhông tiền đau ốm thì nằm cô đơn❗\n\nThanh xuân đi khắp bốn phương\nChẳng bù xế bóng xó vườn mà thôi\nThanh xuân chỉ tính ăn chơi\nKhông lo tiết kiệm ai nuôi tuổi già\n\nBảo làm bảo hiểm giãy ra\nBảo đề, bảo đóm thì sa vào ngay\nThích cho vay lãi được cao\nGửi vào bảo hiểm lo hao đồng tiền\n\nBạc tỉ cho mượn thì tin❗\nBảo hiểm tính chỉ tiền nghìn thì lo\nỐm đau bảo hiểm đỡ cho\nTương lai con cái chẳng lo nghĩ gì\n\nTai ương ập đến bất kì\nLàm cha làm mẹ nhỡ khi không còn\nBiết rằng mới tuổi thanh xuân\nNên làm bảo hiểm chỉ phần mà thôi', 'Bảo hiểm xe các loại ai cần ib ạ', '🏥 SỨC KHỎE LÀ VÀNG - GIẢM NGAY 15% PHÍ BẢO HIỂM SỨC KHỎE VBI CARE TẠI VTC PAY\n\n👉  Xem thêm thông tin chi tiết: https://bit.ly/VBICARE15\n\nTrong tình hình dịch bệnh đang diễn ra căng thẳng, chúng ta ai cũng mong muốn an toàn trong mùa dịch. Vậy thì ngay từ bây giờ, hãy sở hữu bảo hiểm sức khỏe VBICARE giúp bạn bạn chia sẻ nỗi lo, gánh nặng gia đình. Bảo hiểm sức khỏe VBICARE  là tấm vé đảm bảo tài chính và giúp bạn an tâm hơn khi gặp rủi ro về sức khỏe. \n\n👉  Đặc biệt khi đặt mua bảo hiểm bảo hiểm sức khỏe VBICARE trên app VTC Pay, bạn sẽ được giảm giá 15% phí. \n\n📲 Tải app VTC Pay để được hưởng nhiều ưu đãi: vtcpay.vn/app-install\n#VTC_PAY #VTCPay', 'Bảo hiểm vật chất xe ôtô là gói bảo hiểm cần thiết, nếu xảy ra va chạm bất ngờ gây hư hỏng xe, bên bảo hiểm sẽ bù đắp những …', '10 Trường hợp bảo hiểm OTO từ chối bồi thường🚘🚘\n\n_ Quý khách hàng của em lưu ý nhé🥰_', 'đến ạ bảo hiểm ơi bảo hiểm ơi🥴🥴🥴🥴\ncòn 500 tối bắn hụi mà đi 1 phát cỡ nãy tao sống sao', 'Từ khi em bước chân vào ngành bảo hiểm có bạn bè,anh em người thân nào chưa biết em là tư vấn  viên bảo hiểm  ko liệu mọi người  có  xa  lánh,từ  chối  tránh  mặt không?\nMọi người có thế xa lánh từ chối em nhưng những  rủi ro  ốm đau  bệnh tật  tai nạn bệnh  hiểm nghèo...trong tương lai mà  ta không thể  biết trước được em sợ  những  rủi ro  đó sẽ  không từ chối  mọi người!\nNên em mong mọi người  đừng từ chối em .Đừng từ  chối bảo hiểm nhân thọ !', 'Bảo hiểm xe máy có phiên bản điện tử rồi nha 500 anh em! Không sợ làm rách, làm mất, mưa ướt, không sợ quên mang theo, ko sợ cho mượn xe quên mang bảo hiểm!\nAi mua Bảo hiểm xe máy hôn? 🤣', '1.⛔️BẠN CHO RẰNG MÌNH KHÔNG THÍCH BẢO HIỂM.\nTôi chắc rằng bạn cũng không thích đóng tiền học phí cho con. Nhưng bạn vẫn phải đóng, vì bạn không mua khoá học, cái bạn mua là KIẾN THỨC cho con.\n\n2.⛔️BẠN CHO RẰNG THAM GIA BẢO HIỂM XUI.\nThì một ngày nào đó Bác Sĩ hỏi "Bạn có bảo hiểm không?". Bạn sẽ trả lởi:\nHÊN quá bác sĩ ơi, tôi không có bảo hiểm!\nHay XUI quá bác sĩ ơi, Tôi không có bảo hiểm?\n\n3.⛔️BẠN CHO RẰNG THAM GIA BẢO HIỂM LÀ LỖ.\nThì bạn hãy nói với con mình "Con à.. Ba, Mẹ rất yêu con và cam kết đảm bảo tài chính cho con có tương lai tốt đẹp. Nhưng mẹ thấy việc cam kết đó LỖ quá. Hay là thôi con nhỉ?"\n\n4.⛔️BẠN CHO RẰNG THAM GIA BẢO HIỂM BỊ MẤT GIÁ ĐỒNG TIỀN.\nThì tôi khuyên bạn đừng nên mua, để dành, đầu tư vào bất cứ thứ gì nữa. Mà cách duy nhất để tiền không mất giá là hãy xài hết số tiền bạn đang có cho đến đồng cuối cùng trong ngày.\n\n5.⛔️BẠN CHO RẰNG BẢO HIỂM LÀ LỪA ĐẢO.\nThì đó là cú LỪA ĐÁNG GIÁ nhất mà trong cuộc đời bạn nên có. Vì nếu bạn đủ điều kiện được bị lừa thì gia đình bạn và tất cả mọi người trong xã hội đều có lợi. Rất tiếc 315người/ngày mắc bệnh ung thư mỗi năm muốn bị lừa mà không được.\n\n6.⛔️BẠN CHO RẰNG PHẢI HỎI Ý KIẾN NGƯỜI KHÁC KHI THAM GIA BẢO HIỂM.\nThì bạn hãy hỏi họ: "Nếu bây giờ tôi cần gấp 1 tỷ</t>
+    <t>['', 'Bảo hiểm không phải chỉ dành cho người giàu có \nBảo hiểm dành cho những người biết tiết kiệm điều đặn\nBảo hiểm không phải đơn thuần là chăm sóc sức khỏe về y tế \nMà Bảo hiểm còn đảm bảo 50 % kế hoạch tai chính cho chúng cuộc sống giàu có khi về già', 'Tiếp nối buổi đào tạo trước liên quan đến "Lý thuyết về Hợp đồng bảo hiểm", hai luật sư trẻ Lê Mai Phương và Đặng Huyền Thu đã cùng nghiên cứu và làm rõ các vấn đề pháp lý cần lưu ý liên quan đến: (i) Tập quán và điều kiện mẫu thông dụng trong lĩnh vực bảo hiểm; (ii) Thực tiễn xét xử tranh chấp về Hợp đồng bảo hiểm và (iii) Kinh nghiệm thực tiễn liên quan đến Hợp đồng bảo hiểm.', 'Sau 17năm tham gia bảo hiểm Prudential hôm nay là ngày không phải đóng bảo hiểm nữa.\nNói như cách nói của nhân viên tư vấn là ngày đáo hạn hợp đồng.\nNếu không chơi nữa sẽ được hoàn trả cả vốn lẫn bảo tức tích lũy hàng năm.\nSáng nay mình lên văn phòng bảo hiểm Prudential thành phố Bắc Giang.\nTrình bày là sau gần 2 chục năm đóng bảo hiểm với công ty nay đến ngày đáo hạn tôi xin rút tiền để trang trải khó khăn..\nCô nhân viên trả lời là chú tham gia thêm 10 năm nữa.nhưng không phải đóng tiền mỗi năm công ty sẽ trả dần cho chú mấy triệu.\nTôi cũng trình bày là 17 năm tham gia biết bao thăng trầm của cuộc sống lúc tai nạn.\nKhi ốm đau tai biến công ty không biết đấy là đâu.. một lời thăm hỏi cũng không có.\nGiờ có theo thêm 10 năm thì chỉ có lúc chết mới có vòng hoa.\nThôi cho tôi rút.\nTính toán một hồi cô ý bảo là vậy là chú hủy hợp đồng..\nTôi nói thì không tham gia nữa thì hủy..\nVậy là hợp đồng được chấm dứt.\nBạn ý bảo là chú về đi và sau vài ba ngày công ty sẽ chuyển tiền vào tài khoản của chú...\nTổng số tiền được lấy về là 28tr.560 ngàn đồng.\nVề nhà tôi tính là mỗi năm tôi đóng 1.666.000đx17 năm=28.322.000đ\nLúc thời điểm tôi mới tham gia thì mỗi năm đóng 2 chỉ vàng không đủ..\n Vậy mà giờ này được nhận số tiền được coi là hủy hợp đồng như vậy thì mới biết là người tham gia có lợi như thế nào?\nTừ mình mà ra với mức bảo tức tích lũy cực kỳ hấp dẫn trên của công ty bảo hiểm Prudential chắc chắn rất nhiều người tham gia đây...', 'Sau 17năm tham gia bảo hiểm Prudential hôm nay là ngày không phải đóng bảo hiểm nữa.\nNói như cách nói của nhân viên tư vấn là ngày đáo hạn hợp đồng.\nNếu không chơi nữa sẽ được hoàn trả cả vốn lẫn bảo tức tích lũy hàng năm.\nSáng nay mình lên văn phòng bảo hiểm Prudential thành phố Bắc Giang.\nTrình bày là sau gần 2 chục năm đóng bảo hiểm với công ty nay đến ngày đáo hạn tôi xin rút tiền để trang trải khó khăn..\nCô nhân viên trả lời là chú tham gia thêm 10 năm nữa.nhưng không phải đóng tiền mỗi năm công ty sẽ trả dần cho chú mấy triệu.\nTôi cũng trình bày là 17 năm tham gia biết bao thăng trầm của cuộc sống lúc tai nạn.\nKhi ốm đau tai biến công ty không biết đấy là đâu.. một lời thăm hỏi cũng không có.\nGiờ có theo thêm 10 năm thì chỉ có lúc chết mới có vòng hoa.\nThôi cho tôi rút.\nTính toán một hồi cô ý bảo là vậy là chú hủy hợp đồng..\nTôi nói thì không tham gia nữa thì hủy..\nVậy là hợp đồng được chấm dứt.\nBạn ý bảo là chú về đi và sau vài ba ngày công ty sẽ chuyển tiền vào tài khoản của chú...\nTổng số tiền được lấy về là 28tr.560 ngàn đồng.\nVề nhà tôi tính là mỗi năm tôi đóng 1.666.000đx17 năm=28.322.000đ\nLúc thời điểm tôi mới tham gia thì mỗi năm đóng 2 chỉ vàng không đủ..\n Vậy mà giờ này được nhận số tiền được coi là hủy hợp đồng như vậy thì mới biết là người tham gia có lợi như thế nào?\nTừ mình mà ra với mức bảo tức tích lũy cực kỳ hấp dẫn trên của công ty bảo hiểm Prudential chắc chắn rất nhiều người tham gia đây..haha', 'Em bán \nBẢO HIỂM XE MÁY của CÔNG TY CỔ PHẦN BẢO HIỂM PJICO\nHiện tại em đang bán BẢO HIỂM XE MÁY BẮT BUỘC VÀ TỰ NGUYỆN. ANH Chị Em nào đang có nhu cầu mua bảo hiểm vì đã hết hạn hoặc sắp hết thời hạn thì liên hệ với em\n; #76k\nAnh chị em nào có nhu cầu hoặc người thân bạn bè mình đã và đang sắp hết thời hạn bảo hiểm xe máy thì ới e nha em qua nhà viết cho ạ', 'BẠN CÓ NHIỀU ÂU LO? MB AGEAS LIFE CÓ VŨ KHÍ CHỐNG MỌI RỦI RO\n\n👉 Để đối phó với COVID-19, bạn cần có vaccine. \n👉 Để đối phó với tia cực tím, bạn cần có kem chống nắng. \n👉 Để đối phó với những rủi ro khó lường trước, bạn cần có Bảo hiểm Bệnh ung thư Ung Dung Sống Trọn của MB Ageas Life. \n\nHãy cùng điểm qua những Quyền lợi bảo hiểm vượt trội có trong sản phẩm này: \n👍QUYỀN LỢI BẢO HIỂM BỆNH UNG THƯ: Nhận ngay 1️⃣0️⃣0️⃣% số tiền bảo hiểm khi có chẩn đoán mắc bệnh.\n👍QUYỀN LỢI BẢO HIỂM SỐNG KHỎE: Nhận thêm 2️⃣5️⃣% số tiền bảo hiểm khi sống khỏe sau 2 năm kể từ ngày chẩn đoán mắc bệnh.\n👍QUYỀN LỢI BẢO HIỂM BỆNH UNG THƯ ĐẶC BIỆT: Nhận thêm 2️⃣5️⃣% số tiền bảo hiểm khi có chẩn đoán mắc các bệnh ung thư đặc biệt.\n\nChỉ với từ 500 đồng/ngày và trả lời 3 câu hỏi sức khoẻ đơn giản là bạn đã được bảo vệ với tổng quyền lợi lên tới 7️⃣5️⃣0️⃣ triệu đồng 🤩🤩\n\nCòn chần chờ gì nữa mà không tham gia ngay hôm nay. 😍\n\n#UngDungSongKhoe #UngDungSongTron #Quantammoingay #Ungdungtunggiay #MBAL #MBAgeasLife\n-------------\nHotline : 0966339636', 'Hòa giải tại Tòa án nhìn từ vụ tranh chấp bảo hiểm giữa Công ty Bảo hiểm PJICO Bến Thành và Công ty T về yêu cầu bồi thường trong hợp đồng bảo hiểm tàu thuỷ nội địa.\n___\nTừ thực tiễn vụ tranh chấp, có thể thấy, hòa giải là phương án tối ưu trong giải quyết tranh chấp bảo hiểm nói riêng và tranh chấp kinh doanh thương mại nói chung. Nó vừa đảm bảo được quyền và lợi ích hợp pháp của các bên trong vụ tranh chấp, vừa tiết kiệm được rất nhiều thời gian, công sức, tiền bạc và giữ cho mối quan hệ hòa hảo giữa đôi bên.\nLink bài viết: https://vics-corp.com/hoa-giai---phuong-an-toi-uu-trong-giai-quyet-tranh-chap-ve-bao-hiem-2\n___\nThông tin chi tiết liên hệ:\nCông ty Cổ phần Tư vấn Dịch vụ Bảo hiểm Việt Nam \nHotline: 1900.9889.65 \nWebsite: vics-corp.com\nĐịa chỉ: Số 5a/579 Lạc Long Quân, Xuân La, Tây Hồ, Hà Nội.\n#bảo_hiểm_hàng_hải #tư_vấn_bảo_hiểm #tranh_chấp_bảo_hiểm #đòi_quyền_lợi_bảo_hiểm', '❤ AI TỪ CHỐI AI❓❓\n\n⭕ Bạn từ chối bảo hiểm là chuyện BÌNH THƯỜNG. Bảo hiểm từ chối bạn, đó mới là CHUYỆN LỚN....vì khi đó chứng tỏ SỨC KHỎE của bạn - thứ giá trị nhất trên cuộc đời này đã lên tiếng cảnh báo. \n\n⭕ Mua sớm 10 năm, còn hơn mua chậm 1 phút 👍\n\n#Thinhnguyen_daiichilife_0938749479\n#Daiichilife_ganbodailau', 'Mũ bảo hiểm nhà e về sẵn\n#40k', '📌 Cho dù bạn giàu hay nghèo thì bạn cũng cần tham gia Bảo hiểm nhân thọ.\n\n👉 Vì rủi ro nó không biết phân biệt bạn giàu hay bạn nghèo...\n\n👉 Người giàu gặp rủi ro họ có khả năng đối phó cao hơn (vì họ có tiền)\n...\n\n👉 Còn nếu bạn nghèo bạn càng phải tham gia Bảo hiểm nhân thọ (Tuy nhiên tham gia phù hợp với khả năng tài chính của bạn)\n\n👉 Thực tế nếu bạn quá nghèo, bạn đang sống dưới mức chuẩn của xã hội... thì tôi khuyên thật lòng; bạn nên có cho mình một cái bảo hiểm y tế xã hội cộng đồng và hãy chịu khó cày cuốc vào để tham gia bảo hiểm nhân thọ và thoát nghèo bạn nhé.', 'NGHỀ BẢO HIỂM\n\n- Bảo hiểm là lừa đảo\n\n- Mua bảo hiểm làm gì, còn lâu mới đòi được\n\n- Bảo hiểm là đa cấp...\n\n- Thôi thôi, ăn còn không đủ...lấy đâu tiền mua bảo hiểm\n\nĐó ngôn từ người ta vẫn hay sử dụng để nói với người Tư vấn viên Bảo hiểm -  “Sứ giả” bảo vệ gia đình họ trước “bão tố” cuộc đời.\n\n▪▪▪▪▪▪▪▪▪▪▪▪\n🍃KHÔNG PHẢI BỖNG NHIÊN NGHỀ TƯ VẤN BH ĐƯỢC XẾP VÀO TOP 5 NGHỀ DANH GIÁ NHẤT🍃\n▪▪▪▪▪▪▪▪▪▪▪▪\n\nTôi viết những lời này để dành một lời tri ân sâu sắc dành cho những người làm nghề bảo hiểm chân chính.\n\nBạn bị từ chối vẫn không chùn bước\n\nBạn bị coi thường vẫn vui vẻ bước tiếp\n\nBạn bị quay lưng vẫn quyết tâm đến cùng\n\nBởi vì bạn biết, nếu như bạn không nỗ lực hết mình để giúp khách hàng hiểu thấu đáo ý nghĩa của Bảo hiểm, họ sẽ không được bảo vệ, gia đình họ thậm chí không thể vượt qua khó khăn khi gặp biến cố, nhiều cuộc đời sẽ bị ảnh hưởng nặng nề...\n\nNhững người làm nghề tư vấn bảo hiểm, không chỉ bởi vì họ muốn bán hàng, để có thu nhập...mà hơn cả, họ mang trên mình sứ mệnh của người giúp đỡ. Bởi chính vì họ đã tận mắt chứng kiến những thảm cảnh đau lòng: Những đứa trẻ mất cha mất mẹ, những khách hàng bị bệnh tật- ung thư – tai nạn – tàn tật hết sức thương tâm. Vậy cho nên, họ muốn “níu kéo” bạn hãy tham gia bảo hiểm, càng sớm càng tốt... là vì chính bạn, chứ không chỉ vì họ.\n\nVậy nên, đừng bao giờ đóng cửa trước người Tư Vấn viên bảo hiểm.. Bởi vì, nếu bạn “đóng cánh cửa” với họ, cũng có thể bạn bị những cánh cửa khác đóng lại khi gặp biến cố, rủi ro.', 'Thanh xuân như một tách trà\nKhông mua bảo hiểm về già ai chăm\nCó tiền còn có kẻ thăm\nKhông tiền đau ốm thì nằm cô đơn\n\nThanh xuân đi khắp bốn phương\nChẳng bù xế bóng xó vườn mà thôi\nThanh xuân chỉ tính ăn chơi\nKhông lo tiết kiệm ai nuôi tuổi già\n\nBảo làm bảo hiểm giãy ra\nBảo đề, bảo đóm thì sa ngay vào\nThích cho vay lãi được cao\nGửi vào bảo hiểm lo hao đồng tiền\n\nBạc tỉ cho mượn thì tin\nBảo hiểm tính chỉ tiền nghìn thì lo\nỐm đau bảo hiểm đỡ cho\nTương lai con cái chẳng lo nghĩ gì\n\nTai ương ập đến bất kỳ\nLàm cha làm mẹ nhỡ khi không còn\nBiết rằng mới tuổi thanh xuân\nNên làm bảo hiểm chỉ phần mà thôi\n\n👉ngẫm.', 'Góc tuyển dụng - Việc làm ổn định\n\n- Cần tuyển nam nhân viên bảo vệ.\n- Yêu cầu tuổi từ 18 đến 54.\n- Làm việc tại viettel Đà lạt\n* làm ổn định lâu dài sẽ được đóng bảo hiểm xã hội và bảo hiểm y tế\nAi có nhu cầu liên hệ sdt 0868205368.\nTrân trọng!\nhttp://raovatdalat.vn/threads/viettel-lam-dong-can-tuyen-nhan-vien-bao-ve.935067/', 'Tham khảo nhé các bạn!', '[NGHỀ TVV BẢO HIỂM]\n\nLàm bảo hiểm mà HỌC ko cẩn thận trước khi HÀNH, ko khác gì bày món chay cho những người thích ăn thịt, thưa quý vị!\n\nCó khi em trở thành nhà nghiên cứu bảo hiểm ạ 🤗🤗🤗\n\nManulife vẫn đang giữ chương trình hỗ trợ mùa Covid rất hay đến hết tháng 8. \n\nUi nay đã 25/8 rồi. \n\n“Dịch thế này mà có cái bảo hiểm yên tâm hẳn đó các bác!” Rất nhiều khách hàng nhận chi trả Covid từ Manulife nói vậy ạ 🤗🤗🤗', '🌟 Ý NGHĨA CỦA BẢO HIỂM NHÂN THỌ 🌟✨ Có bao giờ chúng ta tự đặt câu hỏi rằng: Giả sử tôi bị bệnh nan y thì sao? Giả sử khi tôi gặp tai nạn thì thế nào? Nếu t...', 'Mũ bảo hiểm có kính, dày dặn \n#85k', 'TĂNG CƯỜNG TUYÊN TRUYỀN THỰC HIỆN CHÍNH SÁCH BẢO HIỂM XÃ HỘI, BẢO HIỂM Y TẾ, BẢO HIỂM TỰ NGUYỆN', 'Bạn nói Bảo hiểm không cần thiết? Thế tiền có cần thiết ko???\n\n🍀Bảo hiểm chỉ là tiền viện phí\n\n🍀 Bảo hiểm chỉ là tiền tiết kiệm\n\n🍀 Bảo hiểm chỉ là tiền học vấn\n\n🍀 Bảo hiểm chỉ là tiền hưu trí\n\n🍀Bảo hiểm là TIỀN ĐỂ GIỮ TIỀN\n\nTrên tất cả bảo hiểm là quỹ dự phòng cho những sóng gió cuộc đời ,luôn đảm bảo tâm nguyện bạn đc hoàn thành.\n\nKo ở đâu làm được điều này mà chỉ có các CTY BH mới làm đc. Lựa chọn nằm ở bạn!. Bạn thử tính bạn đc hay mất khi tham gia Bảo Hiểm❤️', 'TÔI MUỐN THAM GIA 1 HỢP ĐỒNG BẢO HIỂM\n🌻Chiều tôi ký…\nHôm khác tôi ký …\nĐể tôi xem lại …\nĐể tôi suy nghĩ ….\nTôi đợi lúc khác …\nTôi hỏi chồng / vợ .......\nTôi thương lượng lại với người nhà đã .....\nLại có việc khác dùng mất tiền rồi .....\nNgẫm............\n🌼Kỳ thực không cần phải như vậy, bởi tham gia 1 hợp đồng bảo hiểm là của bạn. Người thụ hưởng là bạn, tiền bồi thường là bạn nhận. Chia lãi là bạn nhận.\n🌼Chúng tôi chỉ làm công việc tuyên truyền bảo hiểm, là cầu nối giữa khách hàng với công ty bảo hiểm. Bạn đúng lúc cần, tôi đúng lúc là chuyên môn, chúng ta cùng chia sẻ.\n🌼Bảo hiểm đều cần thiết với mỗi người, là thứ cần thiết với cuộc sống. Không phải đợi đến lúc muốn tham gia lại bị Công ty bảo hiểm từ chối. Khi đó người thiệt thòi là bạn.\n🌼Người nước ngoài khi xảy ra chuyện thì  công ty bảo hiểm tìm và tri trả quyền lợi cho họ. Người Việt khi xảy ra chuyện tìm người vay mượn tiền.\n🌼Khi bình thường ko có chuyện: Mua nhà, mua xe, Không có tiền mua bảo hiểm.\n🌼Khi có chuyện: Bán nhà-bán xe- dùng mọi của cải tài sản để cứu tính mạng.\nBảo vệ tiền - tài sản của bạn, tương lai con cái chỉ bằng 1 Hợp đồng bảo hiểm nhân thọ! Không tin ư?\nHãy gặp Tôi để tìm hiểu thật kĩ trước khi tham gia nhé!\nTôi ❤️BHNT!!!!!!', 'Trường hợp người dân tham gia bảo hiểm y tế không sử dụng thiết bị di động thông minh, bảo hiểm xã hội cấp tỉnh, cấp huyện thực hiện việc cấp lại, đổi thẻ', 'Bảo vệ - hiểm nguy - nguy hiểm = bảo hiểm', '📣[THÔNG BÁO] : V/v tham gia Bảo hiểm Y tế, Bảo hiểm tai nạn đối với sinh viên năm học 2021-2022📣📣\n\n👉👉 Chi tiết thông tin vui lòng xem tại: https://huflit.edu.vn/tin-tuc/thong-bao-v-v-tham-gia-bao-hiem-y-te-bao-hiem-tai-nan-doi-voi-sinh-vien-nam-hoc-2021-2022-1650.html', 'Bảo Hiểm hay là Lừa Đảo đây???', '‼ 25/8 - Những ngày giãn cách không làm mình xa cách nhau - Cảm ơn CTV  liên tục cấp Bảo hiểm Trách nhiệm dân sự, Bảo hiểm vật chất cho các bác lái xe tải, xe con…‼️‼️\n\n👉👉👉 Có nhu cầu viết Bảo hiểm Xe máy - Ô tô giá ưu đãi liên hệ ngay :\n☎️☎️☎️☎️\nHotline: 0972674485  🎁🎁🎁\n\n#Bảo_hiểm_xe_máy \n#Bảo_hiểm_trách_nhiệm_dân_sự\n#Bảo_hiểm_vật_chất_xe_ôtô\n ship cod toàn quốc 👍', 'Xác định tuổi nghỉ hưu', 'Chia sẻ kiến thức và giải đáp thắc mắc về chính sách Bảo hiểm xã hội tự nguyện và Bảo hiểm Vững Tâm An của Bưu điện', '❤❤BẠN MUA GÌ CỦA BẢO HIỂM NHÂN THỌ?\n\nNếu bạn muốn mua TIỀN bằng phí bảo hiểm nhân thọ, thì ngân hàng sẽ đưa bạn nhiều tiền hơn.\n\nNếu bạn muốn mua RẤT NHIỀU TIỀN bằng phí bảo hiểm nhân thọ, thì kênh chứng khoán có thể đưa bạn nhiều tiền hơn.\n\nNếu bạn mua QUYỀN LỢI SỐNG bằng phí bảo hiểm nhân thọ, thì KHI BẠN ỐM bệnh viện sẽ chào đón bạn trong sự chăm sóc tận tình và chu đáo.\n\nNếu bạn mua QUYỀN LỢI CHẾT bằng phí bảo hiểm nhân thọ, thì KHI BẠN KHÔNG CÒN NỮA,  con cái bạn sẽ có thể tự chăm sóc chúng trong một khoảng thời gian dài.\n\nCó những thứ mà bạn không thể mua bằng TIỀN, mà phải mua bằng SỰ HIỂU BIẾT.\n\nNếu bạn chỉ quan tâm đến BẠN SẼ ĐƯỢC BAO NHIÊU TIỀN TỪ HỢP ĐỒNG BẢO HIỂM NHÂN THỌ, thì cuối cùng bạn chỉ thu về những đồng tiền đã bị mất giá. \n\nNếu bạn quan tâm đến BẠN SẼ ĐƯỢC HƯỞNG NHỮNG QUYỀN LỢI GÌ TỪ BẢO HIỂM NHÂN THỌ, thì khi bạn cần, nó sẽ đưa bạn rất nhiều tiền. \n\nHiểu biết sâu sắc về bảo hiểm nhân thọ để trở thành một NGƯỜI TIÊU DÙNG THÔNG THÁI nhé.\n\nHoặc tìm một TƯ VẤN CÓ TRÌNH ĐỘ để tư vấn một GIẢI PHÁP TÀI CHÍNH BẢO HIỂM chứ không phải chỉ là bán một sản phẩm nhé🙂\n#BAOVIET\n#BAOVIETBank\n#BAOVIETBankLaoCai\n#BVBLC25082021', 'Hello cả nhà!!!\nHiện nay e phương có bán thêm BẢO HIỂM TRÁCH NHIỆM DÂN SỰ của tất cả các loại xe ô tô: xe con, xe đầu kéo, xe tải , xe máy....\n\nĐây là bảo hiểm bắt buộc. mua ở mô cũng là mua nên mọi ng có nhu cầu mua bảo hiểm - ủng hộ e phương vs nha. \n   Uy tín - trách nhiệm\n☎️ 0868 694 195', 'Bác nào bảo hiểm xe máy, oto hết hạn bảo e nhé', 'CÓ BẢO HIỂM Y TẾ, LIỆU ĐÃ ĐỦ CHƯA?\n\n✔️BHYT: Chỉ trang trải chi phí điều trị cho riêng bạn, có giới hạn.\n\n✔️BHNT: Bảo hiểm Tương Lai của người thân; bảo hiểm Tài Sản; xây dựng quỹ hưu trí; bảo hiểm tai nạn, trang trải chi phí điều trị cho bạn, thậm chí cho cả GĐ bạn.\n\nVậy, là người TRỤ CỘT trong mỗi GĐ, điều gì đối với bạn là QUAN TRỌNG nhất?\n\nNên chăng, vẫn mua BHYT nhưng sẽ ưu tiên tham gia một HĐ BHNT đủ lớn, thay vì cho rằng có BHYT là đủ?\n\n#GocBHNTPhong Hoàng Gia', 'Có ai thích mua hàng mà được tặng mũ bảo hiểm k nhỉ', 'https://www.youtube.com/watch?v=JSuQfU3oUYw', 'CÓ BẢO HIỂM Y TẾ, LIỆU ĐÃ ĐỦ CHƯA?\n✔️BHYT: Chỉ trang trải chi phí điều trị cho riêng bạn, có giới hạn.\n✔️BHNT: Bảo hiểm Tương Lai của người thân; bảo hiểm Tài Sản; xây dựng quỹ hưu trí; bảo hiểm tai nạn, trang trải chi phí điều trị cho bạn, thậm chí cho cả GĐ bạn.\nVậy, là người TRỤ CỘT trong mỗi GĐ, điều gì đối với bạn là QUAN TRỌNG nhất?\nNên chăng, vẫn mua BHYT nhưng sẽ ưu tiên tham gia một HĐ BHNT đủ lớn, thay vì cho rằng có BHYT là đủ?', '💡 Chỉ cần bỏ ra chưa đến 1.300đ/ngày, bạn và gia đình sẽ được bảo vệ cả năm với sản phẩm bảo hiểm “Vững Tâm An”\n👉🏻Bưu điện Sóc Trăng xin bật mí với các bạn những điểm đặc biệt của sản phẩm bảo hiểm mới ra mắt này nhé!\n👉🏻 Vững Tâm An mang đến cho khách hàng \n✅ Quyền lợi về Quỹ hỗ trợ đặc biệt cho dịch bệnh và sốc phản vệ\n✅ Phí bảo hiểm vô cùng hợp lý\n✅ Trẻ em được tham gia từ lúc mới sinh và không cần mua cùng bố mẹ\n✅ Có thể đến bất cứ bưu cục nào của Bưu điện Việt Nam để nhận tiền bồi thường\n💡 Quá nhiều điểm “tiện ích” chỉ trong 1 loại bảo hiểm, còn chần chờ gì nữa nhanh tay gọi ngay số Holine 02993 629 629 của Bưu điện Sóc Trăng để được tư vấn cụ thể ngay thôi nào các bạn!\n\nVỮNG TÂM AN - AN TÂM VỮNG BƯỚC\n--------------------------------\nBƯU ĐIỆN SÓC TRĂNG – GỬI CẢ NIỀM TIN\nHotline 02993 629 629', 'MN ai cần Bảo hiểm xe máy thì liên hệ bạn em nha\n100k/ 3 năm nè', 'ĐỀ XUẤT QUỸ BẢO HIỂM THẤT NGHIỆP HỖ TRỢ CÔNG NHÂN KHÓ KHĂN\n-------------------------------\nhttps://vnexpress.net/de-xuat-quy-bao-hiem-that-nghiep-ho-tro-cong-nhan-kho-khan-4345302.html', 'Đừng từ chối bảo hiểm khi bạn còn có thể, bởi vì sẽ có lúc bạn rất cần nhưng bảo hiểm lại từ chối bạn.', 'Bao nhiêu năm đóng bảo hiểm thất nghiệp.bây jo dịch ko đi làm dc.đã đến lúc bảo hiểm thất nghiệp phát huy tác dụng hả ae', 'Mình cần tư vấn về bảo hiểm Manulife, gói dành cho bé', 'Thiệt muốn up stt về bảo hiểm, mà k biết ghi sao luôn ó.\nThông điệp là BẢO HIỂM CẦN LẮM ĐÓ MẤY CHỆ EM ƠI! \n☺️', 'CÂU CHUYỆN CẢM ĐỘNG MÙA DỊCH\n\nCre: Facebook comic\n-------------------\n👨 Home Dental – Nha khoa tiêu chuẩn Đức duy nhất được Đại sứ quán Đức tin chọn.\n❣️ Địa chỉ: 30 Triệu Việt Vương, Hai Bà Trưng, Hà Nội\n🌐 Website: http://nhakhoahome.com/\n🏢 Bảo lãnh trực tiếp và hỗ trợ bảo hiểm cho hơn 15 hãng bảo hiểm\n☎️ Hotline: 0243.8289999 / 0914.665.656\n⏰ Thời gian làm việc: 8h30 - 19h tất cả các ngày.\n#home_dental #30trieu_viet_vuong #nha_khoa_home #home_dental_clinic #nha_khoa_chuẩn_đức', 'Mer c300 \nRapto 2.0 \nRanger wiltrack 3.2 \nSuzuki Tải van \n===&gt;&gt; chưa bao giờ mua bảo hiểm 1 chiều hay 2 chiều . Thua thì chung . Ko mua . Dẹp .', 'Tiếp tục chi trả gộp lương hưu và trợ cấp bảo hiểm xã hội tháng 9, 10 trong một kỳ', 'Trường hợp không còn thuộc đối tượng tham gia bảo hiểm xã hội bắt buộc, người lao động đóng có thể tham gia bảo hiểm xã hội tự nguyện và được cộng dồn với thời gian tham gia bảo hiểm xã hội bắt buộc trước đó.', 'Mọi người cho em hỏi cô làm ở ấp thới thuận b.lại nhà em lấy thông tin bảo nhà ai có bảo hiểm y tế mới đc tiêm vacxin là đúng k ah.em thấy mọi người đều nói tim vacxin miễn phí cho dân nhông tại sao lại mua bảo hiểm y tế thì mới đc tiêm', 'KÈO THƠM KÈO THƠM CHO CẢ NHÀ ĐÂY 😊😊\n      Tháng 9 ngày hội đưa trẻ đến trường. Mũ bảo hiểm phục vụ các tình yêu bé đây. Mũ bảo hiểm khủng long #99k\nMũ bảo hiểm trẻ em siêu nhân #85k/1c', 'Tình hình (+) rất phức tạp.\nĐừng để bị F0 rồi bị bảo hiểm từ chối ạ\nKhách hàng nào đã có HĐ bảo hiểm Daiichi, nếu chẳng may xui rủi liên quan covid, nhắn e hỗ trợ ngay nhé', '[GÓC THÔNG TIN]\n\nGia hạn, tăng mới thẻ bảo hiểm y tế hộ gia đình và bảo hiểm xã hội tự nguyện khi thực hiện cách ly xã hội theo Chỉ thị 16\n\nhttps://rd.zapps.vn/detail/2929392022858290806?zl3rd=815789662550058820&amp;id=e33e310664438d1dd452&amp;zarsrc=1303&amp;utm_source=zalo&amp;utm_medium=zalo&amp;utm_campaign=zalo&amp;fbclid=IwAR0I3SU-o9Nr2zFAM3vT3U551PCkDZfln2EQfzjsECF45tcslDbyf5mlmFs', 'Niềm vui khi rất nhiều người nhớ đến em,  có chị vui tính bảo họ mời tham gia bảo hiểm y tế hộ gia đình đến tận nhà nhưng vẫn ra ủy ban để đóng tiền tham gia bảo hiểm y tế với em.  Tuy ít lòng nhiều em sẽ tiếp tục khuyến mãi ép plastic bảo hiểm y tế khi tham gia với em.', 'Lý do vẫn nghèo 🤣🤣🤣', 'TÔI MUỐN THAM GIA 1 HỢP ĐỒNG BẢO HIỂM\n🌻Chiều tôi ký…\nHôm khác tôi ký …\nĐể tôi xem lại …\nĐể tôi suy nghĩ ….\nTôi đợi lúc khác …\nTôi hỏi chồng / vợ .......\nTôi thương lượng lại với người nhà đã .....\nLại có việc khác dùng mất tiền rồi .....\nNgẫm............\n🌼Kỳ thực không cần phải như vậy, bởi tham gia 1 hợp đồng bảo hiểm là của bạn. Người thụ hưởng là bạn, tiền bồi thường là bạn nhận. Chia lãi là bạn nhận.\n🌼Chúng tôi chỉ làm công việc tuyên truyền bảo hiểm, là cầu nối giữa khách hàng với công ty bảo hiểm. Bạn đúng lúc cần, tôi đúng lúc là chuyên môn, chúng ta cùng chia sẻ.\n🌼Bảo hiểm đều cần thiết với mỗi người, là thứ cần thiết với cuộc sống. Không phải đợi đến lúc muốn tham gia lại bị Công ty bảo hiểm từ chối. Khi đó người thiệt thòi là bạn.\n🌼Người nước ngoài khi xảy ra chuyện thì  công ty bảo hiểm tìm và tri trả quyền lợi cho họ. Người Việt khi xảy ra chuyện tìm người vay mượn tiền.\n🌼Khi bình thường ko có chuyện: Mua nhà, mua xe, Không có tiền mua bảo hiểm.\n🌼Khi có chuyện: Bán nhà-bán xe- dùng mọi của cải tài sản để cứu tính mạng.\nBảo vệ tiền - tài sản của bạn, tương lai con cái chỉ bằng 1 Hợp đồng bảo hiểm nhân thọ! Không tin ư?\nHãy gặp Tôi để tìm hiểu thật kĩ trước khi tham gia nhé!', 'BẠN CÓ NHIỀU ÂU LO? MB AGEAS LIFE CÓ VŨ KHÍ CHỐNG MỌI RỦI RO\n\n👉 Để đối phó với COVID-19, bạn cần có vaccine. \n👉 Để đối phó với tia cực tím, bạn cần có kem chống nắng. \n👉 Để đối phó với những rủi ro khó lường trước, bạn cần có Bảo hiểm Bệnh ung thư Ung Dung Sống Trọn của MB Ageas Life. \n\nHãy cùng điểm qua những Quyền lợi bảo hiểm vượt trội có trong sản phẩm này: \n👍QUYỀN LỢI BẢO HIỂM BỆNH UNG THƯ: Nhận ngay 1️⃣0️⃣0️⃣% số tiền bảo hiểm khi có chẩn đoán mắc bệnh.\n👍QUYỀN LỢI BẢO HIỂM SỐNG KHỎE: Nhận thêm 2️⃣5️⃣% số tiền bảo hiểm khi sống khỏe sau 2 năm kể từ ngày chẩn đoán mắc bệnh.\n👍QUYỀN LỢI BẢO HIỂM BỆNH UNG THƯ ĐẶC BIỆT: Nhận thêm 2️⃣5️⃣% số tiền bảo hiểm khi có chẩn đoán mắc các bệnh ung thư đặc biệt.\n\nChỉ với từ 500 đồng/ngày và trả lời 3 câu hỏi sức khoẻ đơn giản là bạn đã được bảo vệ với tổng quyền lợi lên tới 7️⃣5️⃣0️⃣ triệu đồng 🤩🤩\n\nCòn chần chờ gì nữa mà không tham gia ngay hôm nay. 😍\n\n#UngDungSongKhoe #UngDungSongTron #Quantammoingay #Ungdungtunggiay #MBAL #MBAgeasLife\n-------------\n👉 Vào App MB Bank trải nghiệm ngay Ung Dung Sống Khỏe: https://bit.ly/2Uce3s4 \n👉 Liên hệ Đại lý để tận hưởng Ung Dung Sống Trọn: https://bit.ly/3qA1uD6 \nHoặc hotline: 024.2229.8888', '🍌🍉TRÁI CÂY TƯƠI NGON MỖI NGÀY🥑🍊\n\n📣📣📣VINMART TẶNG GÓI BẢO HIỂM "KHOẺ MẠNH TRONG MÙA DỊCH"\n🛒🛒🛒 Mua sắm tiện lợi, nhanh gọn ĐI CHỢ HỘ qua:\n👉Zalo 📲0965564227\n👉https://vinmartquangngai.online\n👉Fanpage: Siêu thị VinMart Quảng Ngãi\nRất tiện lợi👍Nhanh tay chốt đơn nha khách iu\n🤩Hãy mua sắm ngay tại VinMart Quảng Ngãi\n\n--------------------------------------\nChính sách giao hàng Đi chợ hộ:\n▪ Miễn phí giao hàng với đơn hàng từ 200.000đ, với bán kính 10km\n▪ Giao hàng tối đa khoảng 30 phút khi đặt hàng.\n#VinMartQuảngNgãi\n#TươingonThượnghạng\n#Đichợhộ', '99% những tư vấn bảo hiểm thường nói. Mấy case lùm xùm là do những người bán trước, tư vấn không có tâm hoặc thiếu kiến thức nên bảo hiểm không đền...bla..bla...\nNếu hỏi ngược lại giờ bạn đang tư vấn cho tôi là bạn có tâm, đủ kiến thức  và công ty sẳn sàng ký điều khoản phụ trong hợp đồng là chắc chắn 100% sẽ đền hợp đồng thỏa đáng ?\n\nNV bảo hiểm do cty đào tạo và đại diện họ ra tư vấn và ký hợp đồng với khách. Có biến lại đổ thừa nv không có tâm xong phủi trách nhiệm.  Người mới đổ thừa người cũ, cty thì đổ cho nv là xong. \n\nhttps://www.facebook.com/groups/221454544712625/posts/1803086589882738/', 'Mọi người lưu ý nhé', 'Con cái không phải bảo hiểm tuổi già.\nOne more time say "con cái không phải bảo hiểm tuổi già"', 'Thanh xuân như một tách trà\nKhông mua bảo hiểm về già ai chăm\nCó tiền còn có kẻ thăm\nKhông tiền đau ốm thì nằm cô đơn\n\nThanh xuân đi khắp bốn phương\nChẳng bù xế bóng xó vườn mà thôi\nThanh xuân chỉ tính ăn chơi\nKhông lo tiết kiệm ai nuôi tuổi già\n\nBảo làm bảo hiểm giãy ra\nBảo đề, bảo đóm thì sa ngay vào\nThích cho vay lãi được cao\nGửi vào bảo hiểm lo hao đồng tiền\n\nBạc tỉ cho mượn thì tin\nBảo hiểm tính chỉ tiền nghìn thì lo\nỐm đau bảo hiểm đỡ cho\nTương lai con cái chẳng lo nghĩ gì\n\nTai ương ập đến bất kỳ\nLàm cha làm mẹ nhỡ khi không còn\nBiết rằng mới tuổi thanh xuân\nTham gia Bảo hiểm góp phần an yên!\n\nCuộc đời bao nỗi ưu phiền\nRủi ro nếu lỡ..., lấy tiền đâu ra\nBảo hiểm nhân thọ tham gia\nAn tâm  chắc chắn tuổi già yên vui!\n\nNguồn: Sưu tầm', 'Siêu Thị Bảo hiểm ZALOHA Việt Nam tuyển dụng Chuyên Viên Đào Tạo - 211 Nguyễn Hữu Thọ, Hòa Thuận Tây, Hải Châu, TP Đà Nẵng - 0917 981 747', 'Xem phim mà cứ phải đội mũ bảo hiểm thì căng quá🤣', 'NGU THẾ - CÓ ĂN HỌC BẰNG CẤP ĐÀNG HOÀNG LẠI ĐI BÁN HÀNG...?!?\n\nNăm 2003 tôi nói với gia đình một người bạn thân là tôi đi bán bảo hiểm nhân thọ, lúc đó bạn tôi chửi tôi và cha mẹ người bạn đó chửi tôi là ngu, cha mẹ nuôi ăn học có bằng tốt như vậy (ĐH kinh tế k22) giờ đi bán bảo hiểm lừa đảo, tôi biết là đã bị phản đối nên tôi im lặng không giải thích gì cả. \n.\n1 năm sau, khi đó tôi tự tin về kỹ năng bán bảo hiểm rồi, nên tôi mạnh dạn gặp bạn tôi, với mục đích là tư vấn kế hoạch tài chính tiết kiệm cho gia đình và con học đại học (lúc đó bạn tôi đã có em bé). Thế là tôi bị chỉ trích và nói tôi rằng, có lừa thì tìm người lạ mà lừa, bạn bè có kẹt tiền thì nói, chứ ai đem bảo hiểm ra lừa bạn. Lần này tôi đã có kinh nghiệm bán bảo hiểm rồi (tôi lì đòn lắm) nên bắt đầu tôi bám sát và xử lý từ chối và giúp bạn tôi hiểu. Nhưng một lần nữa tôi trách là làm phiền và không nghe máy điện thoại tôi nữa. Thế là tôi thua khách hàng này, một người bạn rất thân của tôi. \n.\nĐến năm 2010 thì bạn tôi lại gọi cho tôi, lần này anh ta hỏi tôi còn làm bảo hiểm không? Và nói với tôi rằng muốn mua bảo hiểm gấp, và nhờ tôi giúp mua nhanh bảo hiểm mệnh giá càng cao càng tốt. Tôi nghĩ trong lòng thằng khỉ này nó trêu mình. Nhưng không phải các bạn ah, bạn tôi bị ung thư vòm họng. Lần này thì ngược lại, tôi nói giờ thì không mua được nữa rồi, vị bệnh ung thư nằm trong điều khoản loại trừ tham gia bảo hiểm. Thế là bạn tôi và cả gia đình bạn tôi chửi tôi, nào là tôi ác, bạn với nhau có việc bán bảo hiểm để để có hoa hồng chứ có xin đâu mà không bán, nào là tôi trả thù lúc xưa bị chửi v.v.v lúc này tôi không biết nói được gì nữa và lại im lặng thêm lần thứ 3 đối với gia đình người bạn thân của tôi nhưng lần này im lặng nhưng nước mắt tôi cứ chảy ra, vì mình là một người tư vấn bảo hiểm mà lại không giúp bạn mình khi chẳng may gặp rủi ro trong cuộc sống và biết chắc rằng gia đình bạn tôi sẽ tốn rất nhiều tiền để điều trị và bạn tôi sẽ ra đi rất sớm bỏ lại cha mẹ già và gia đình bé nhỏ có đứa con thơ rồi họ sẽ sống sao đây. \n.\nNghề bảo hiểm là vậy đó các bạn ah, là một nghề luôn làm cho mình rơi nước mắt. Khó khăn lắm, nhân bản lắm. \n.\nP/s: Câu chuyện có thật từ một người bạn đồng nghiệp. \nHãy tham BHNT khi chưa muộn.\ufeff\n----------', '❤️ Bảo hiểm nhân thọ là trách nhiệm\nCảm ơn thầy chia sẻ về BHNT', 'Thông báo v/v tham gia Bảo hiểm Y tế, Bảo hiểm tai nạn đổi với sinh viên năm học 2021-2022 - Detail - Tin Tức -...', 'Chỉ với phí bảo hiểm từ 199 ngàn VND cho quyền lợi bảo hiểm lên đến 1.2 tỷ VND, bạn sẽ được Manulife bảo vệ toàn diện xuyên suốt 365 ngày. Tìm hiểu ngay!', 'Hướng dẫn gửi hồ sơ qua bưu điện ở TP.HCM\n\nTP.HCM đang trong giai đoạn giãn cách xã hội để phòng chống dịch Covid-19, tuy nhiên người dân vẫn cần giải quyết một số thủ tục hành chính. Mới đây, Bưu điện TP.HCM đã triển khai dịch vụ nhận và trả kết quả giải quyết thủ tục hành chính tại nhà.\n\nCác loại tài liệu được tiếp nhận tại nhà trong thời gian TP.HCM giãn cách xã hội gồm có: hồ sơ xét tuyển vào đại học; hồ sơ nhận trợ cấp thất nghiệp; hồ sơ nhận trợ cấp Bảo hiểm xã hội một lần; các tài liệu, hồ sơ, chứng từ khác.\n\nBưu điện TP.HCM cam kết 100% hồ sơ sẽ được chuyển phát an toàn đến đúng địa chỉ nhận; chi phí chuyển phát không thay đổi so với trước khi thực hiện giãn cách xã hội.\n\nGửi hồ sơ qua Bưu điện TP.HCM như thế nào?\n\nTổ chức, cá nhân, doanh nghiệp có nhu cầu chuyển phát và nhận kết quả giải quyết thủ tục hành chính tại nhà có thể đăng ký tại địa chỉ nhantaidiachi.hcmpost.vn. Trong mục "Tạo đơn hàng", người dân nhập rõ thông tin bên gửi, bên nhận, và chọn loại tài liệu. Người dân cũng có thể tra cứu quá trình chuyển phát trong mục "Tìm kiếm".\n\nNgười dân có nhu cầu chuyển phát và nhận kết quả giải quyết thủ tục hành chính tại nhà có thể đăng ký tại địa chỉ nhantaidiachi.hcmpost.vn. Trong mục "Tạo đơn hàng", hãy nhập rõ thông tin bên gửi, bên nhận, và chọn loại tài liệu.\n\nNgười dân cũng có thể tra cứu quá trình chuyển phát trong mục "Tìm kiếm".\n\nBên cạnh đó, người dân có thể liên hệ với Bưu điện TP.HCM qua tổng đài (028).39.247.247, từ 8h - 16h các ngày trong tuần (trừ chủ nhật và các ngày lễ), để được phục vụ.\n\nKhi có kết quả, đến ngày hẹn nhân viên Bưu điện TP.HCM sẽ tới cơ quan hành chính nhận lại kết quả giải quyết thủ tục hành chính và nhanh chóng chuyển kết quả tới tận địa chỉ các tổ chức, cá nhân đã đăng ký.\n\nAnh Hào\n\n#congnghe #vietbao', 'Cuộc Thi: BẢO HIỂM NHÂN THỌ 4.0  #Daiichilife                          \nCả Nhà Mình LIKE và ủng hộ Em với nhé', 'Chính sách bảo hiểm xã hội tự nguyện', 'Thế nên chả bgio tôi chơi bảo hiểm,', 'NƠI NÀO "DỄ BÁN" BHNT NHẤT ???\n\n⚡️Câu trả lời chắc chắn BỆNH VIỆN! Đây là nơi có tỷ lệ người MUỐN hoặc nói GIÁ NHƯ mình đã tham gia nhất.\n\n— Ai có bảo hiểm nhân thọ sẽ nói THẬT MAY VÌ CÓ BẢO HIỂM.\n\n— Ai chưa kịp tham gia bảo hiểm nhân thọ  sẽ nói ƯỚC GÌ MÌNH CÓ BẢO HIỂM.\n\n☘ Cơm, áo, gạo, tiền, và hảng tỉ các chi phí khác sẽ chẳng chờ bạn nói  "giá như", tương lai của gia đình bạn cũng vậy. Đường đời sẽ không dừng lại bởi vì bất kỳ ai phải dừng bước.\n\n☘ Cơm vẫn phải ăn, Nước vẫn phải uống, Con cái vẫn phải có tiền để ăn học, mua sắm quần áo, sách vở, Bố mẹ già vẫn cần tiền để chi trả cho các năm tuổi già.\n\n☔️ Trong cuộc sống, BHNT giống như CHIẾC Ô CỨU SINH trước những “Cơn Mưa Bất Ngờ”, có thể ập đến ngay ngày mai, thậm chí có thể ngay ngày hôm nay.\n\n☔️ Và tất nhiên, muốn không bị ướt bởi cơn mưa thì phải mua ô từ lúc chưa mưa chứ đến lúc mưa mới mua thì “không kịp nữa rồi”\n\n#Thuymanulife_QLKDTM\n#Traomaymannhannucuoi', 'Gói bảo hiểm đóng phí 3 năm, sau đó k cần đóng phí vẫn được bảo vệ 10-20 năm.\nHãy tham gia bảo hiểm nhân thọ vì bạn và chính người thân của bạn🥰🥰🥰🥰🥰🥰🥰🥰', '❌CẢNH BÁO ‼️ BÓC PHỐT BẢO HIỂM DAIICHI ‼️\n \n   Phốt to quá này mọi người ơi. Khách hàng lên mạng  phản ánh về Daiichi . Tư vấn toàn lừa khách hàng tham gia bảo hiểm để mỗi lần khách đi viện, khách đều được hưởng dịch vụ tốt lại còn không mất tiền nữa kìa mọi người ơi 😅😅. Daiichi trả hết tiền chữa bệnh cho khách rồi 😅😅😅😅', 'Cuộc đời e ghét nhất là bảo hiểm vì đóng tiền vô thì dễ nhưng lấy ra thì khó . Xác minh rồi thủ tục đủ trò mèo , gần đây đi vay ngân hàng cũng bắt mua 1 cái bảo hiểm nhưng trả hết ngân hàng rồi thì bảo hiểm làm gì nữa . Thế là mất tiền ngu , chỉ tội cho dân , chả hiểu ở đâu cái luật thế chấp tài sản để vay ngân hàng lại phải mua bảo hiểm để lỡ có gì bảo hiểm lo . Thế chấp rồi ko thanh toán thì lấy đất thôi chứ bảo hiểm méo nào lo cho mình . Nghĩ mà cay hết mắt .', '😭😭😭Đời người thật ngắn ngủi, Hãy yên nghĩ chị nhé😭😭😭\n  Chị sinh năm 1987, Cách đây chưa đầy 1 năm em gặp chị, sau khi chia sẽ về ý nghĩa của bảo hiểm thì chị mong muốn tham gia bảo hiểm để bảo vệ cho chồng chị, vì anh ấy là tài xế lái xe rủi ro nhiều, nhưng vì lý do sức khoẻ nên công ty BH AIA đã tạm hoãn hồ sơ của anh, cuối cùng chuyển qua tham gia bảo vệ chính cho chị, cũng chỉ mong muốn có tiền nằm viện lúc ốm đau và để dành tiền cho con sau này, ngờ đâu tham gia được nữa năm thì chị bị phát hiện ung thư giai đoạn cuối😭\n👉Với vai trò 1 tư vấn viên, chúng em đã hoàn thành sứ mệnh của mình giúp gia đình chị đã nhận được số tiền BH nhanh chóng, số tiền này k thể thay thế một người mẹ, người vợ nhưng cũng phần nào gánh bớt gánh nặng cho gia đình chị, con cái tiếp tục đến trường', 'đúng', '🎶 Trong bài trước chúng ta đã cùng tìm hiểu về \nCÁC TRƯỜNG HỢP LOẠI TRỪ TRÁCH NHIỆM BẢO HIỂM.\nTrong bài này, chúng ta\n🎥 CÙNG VTV3 TÌM HIỂU: DỊCH BỆNH COVID 19 CÓ ĐƯỢC CHI TRẢ BẢO HIỂM KHÔNG ?', 'Quý khách hàng hãy liên hệ Bưu điện huyện Vĩnh Thạnh để mua:\n1/ Bảo hiểm xe máy\n2/ Bảo hiểm ô tô\n3/ Bảo hiểm tai nạn hộ gia đình\n\nĐịa chỉ: ấp Qui lân 5, xã Thạnh Quới, huyện Vĩnh Thạnh, TP Cần Thơ\n\nĐiện Thoại liên hệ:\n02923.858.400\n\n0939575609 gặp Huyền\n\n0795430125 gặp Tuyền\nTrân trọng!', 'Mới đây, Công ty TNHH Bảo hiểm Nhân thọ Prudential Việt Nam (Prudential) đã được vinh danh tại Giải thưởng Bảo hiểm châu Á năm 2021 với hai hạng mục giải thưởng lớn cho thị trường Việt Nam. Đây là năm thứ 3 liên tiếp Prudential được ...', 'CÔNG KHAI CÁC DOANH NGHIỆP NỢ ĐÓNG BHXH TRÊN BÁO CHÍ\n\nĐây là nội dung nằm trong Kế hoạch 194/KH-UBND của UBND TP. Hà Nội ngày 26/8/2021 về thực hiện các giải pháp, biện pháp thu hồi nợ đóng bảo hiểm xã hội (BHXH), bảo hiểm y tế (BHYT), bảo hiểm thất nghiệp (BHTN) trên địa bàn Thành phố giai đoạn 2021 - 2025.\n\n#LuatVietnam', 'Tiếp sóng và tường thuật trực tiếp chương trình\nHỘI NGHỊ LÃNH ĐẠO VÀ QUẢN LÝ NGÀNH BẢO HIỂM\nVÙNG CARIBEAN - CHÂU MỸ 2021\nLeadership And Management Program\nLAMP - CARIBBEAN 2021\n\nCùng xem nhé mọi người...', '7 Lý Do Để Mua Bảo Hiểm Nhân ThọLiên hệ ngay 0931.935.404', '✓ Khách hàng đã vay fe từ 4-6 tháng\n✓ đã vay tpb từ 6 tháng\n✓Đã vay shb từ 6tháng\n✓Đã vay các công ty tài chính khác từ 6 tháng\n√✓√✓ hoặc có \nbảo hiểm nhân thọ, bảo hiểm y tế, cavet xe , sim các loại mạng\nCần vay alo em\n0395035305 Toàn Quốc !', '</t>
   </si>
 </sst>
 </file>
